--- a/target/classes/mold_output.xlsx
+++ b/target/classes/mold_output.xlsx
@@ -86,7 +86,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-484.0360172534875</v>
+        <v>-48.40360172534875</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -94,7 +94,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-484.3329459172716</v>
+        <v>-48.43329459172716</v>
       </c>
       <c r="B4" t="n">
         <v>0.8</v>
@@ -102,7 +102,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-484.62613545577227</v>
+        <v>-48.46261354557723</v>
       </c>
       <c r="B5" t="n">
         <v>1.6</v>
@@ -110,7 +110,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-484.91558702270623</v>
+        <v>-48.49155870227062</v>
       </c>
       <c r="B6" t="n">
         <v>2.4000000000000004</v>
@@ -118,7 +118,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-485.2013016764528</v>
+        <v>-48.52013016764528</v>
       </c>
       <c r="B7" t="n">
         <v>3.2</v>
@@ -126,7 +126,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-485.483280381041</v>
+        <v>-48.5483280381041</v>
       </c>
       <c r="B8" t="n">
         <v>4.0</v>
@@ -134,7 +134,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-485.76152400711607</v>
+        <v>-48.57615240071161</v>
       </c>
       <c r="B9" t="n">
         <v>4.800000000000001</v>
@@ -142,7 +142,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-486.0360333329052</v>
+        <v>-48.60360333329052</v>
       </c>
       <c r="B10" t="n">
         <v>5.6000000000000005</v>
@@ -150,7 +150,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-486.30680904516083</v>
+        <v>-48.63068090451608</v>
       </c>
       <c r="B11" t="n">
         <v>6.4</v>
@@ -158,7 +158,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-486.57385174009676</v>
+        <v>-48.657385174009676</v>
       </c>
       <c r="B12" t="n">
         <v>7.2</v>
@@ -166,7 +166,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-486.8371619243163</v>
+        <v>-48.68371619243163</v>
       </c>
       <c r="B13" t="n">
         <v>8.0</v>
@@ -174,7 +174,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-487.09674001572694</v>
+        <v>-48.709674001572694</v>
       </c>
       <c r="B14" t="n">
         <v>8.8</v>
@@ -182,7 +182,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-487.35258634444136</v>
+        <v>-48.735258634444136</v>
       </c>
       <c r="B15" t="n">
         <v>9.600000000000001</v>
@@ -190,7 +190,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-487.60470115367326</v>
+        <v>-48.760470115367326</v>
       </c>
       <c r="B16" t="n">
         <v>10.4</v>
@@ -198,7 +198,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-487.8530846006197</v>
+        <v>-48.78530846006197</v>
       </c>
       <c r="B17" t="n">
         <v>11.200000000000001</v>
@@ -206,7 +206,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-488.0977367573374</v>
+        <v>-48.80977367573374</v>
       </c>
       <c r="B18" t="n">
         <v>12.0</v>
@@ -214,7 +214,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-488.33865761160183</v>
+        <v>-48.83386576116018</v>
       </c>
       <c r="B19" t="n">
         <v>12.8</v>
@@ -222,7 +222,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-488.57584706776663</v>
+        <v>-48.85758470677666</v>
       </c>
       <c r="B20" t="n">
         <v>13.600000000000001</v>
@@ -230,7 +230,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-488.8093049476075</v>
+        <v>-48.88093049476075</v>
       </c>
       <c r="B21" t="n">
         <v>14.4</v>
@@ -238,7 +238,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-489.0390309911564</v>
+        <v>-48.90390309911564</v>
       </c>
       <c r="B22" t="n">
         <v>15.200000000000001</v>
@@ -246,7 +246,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-489.2650248575339</v>
+        <v>-48.92650248575339</v>
       </c>
       <c r="B23" t="n">
         <v>16.0</v>
@@ -254,7 +254,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-489.4872861257653</v>
+        <v>-48.94872861257653</v>
       </c>
       <c r="B24" t="n">
         <v>16.8</v>
@@ -262,7 +262,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-489.70581429559047</v>
+        <v>-48.97058142955905</v>
       </c>
       <c r="B25" t="n">
         <v>17.6</v>
@@ -270,7 +270,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-489.9206087882763</v>
+        <v>-48.99206087882763</v>
       </c>
       <c r="B26" t="n">
         <v>18.400000000000002</v>
@@ -278,7 +278,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-490.13166894739896</v>
+        <v>-49.013166894739896</v>
       </c>
       <c r="B27" t="n">
         <v>19.200000000000003</v>
@@ -286,7 +286,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-490.33899403963915</v>
+        <v>-49.033899403963915</v>
       </c>
       <c r="B28" t="n">
         <v>20.0</v>
@@ -294,7 +294,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-490.5425832555642</v>
+        <v>-49.05425832555642</v>
       </c>
       <c r="B29" t="n">
         <v>20.8</v>
@@ -302,7 +302,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-490.7424357103946</v>
+        <v>-49.07424357103946</v>
       </c>
       <c r="B30" t="n">
         <v>21.6</v>
@@ -310,7 +310,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-490.93855044477607</v>
+        <v>-49.09385504447761</v>
       </c>
       <c r="B31" t="n">
         <v>22.400000000000002</v>
@@ -318,7 +318,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-491.13092642553625</v>
+        <v>-49.113092642553625</v>
       </c>
       <c r="B32" t="n">
         <v>23.200000000000003</v>
@@ -326,7 +326,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-491.3195625464357</v>
+        <v>-49.13195625464357</v>
       </c>
       <c r="B33" t="n">
         <v>24.0</v>
@@ -334,7 +334,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-491.5044576289182</v>
+        <v>-49.15044576289182</v>
       </c>
       <c r="B34" t="n">
         <v>24.8</v>
@@ -342,7 +342,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-491.68561042284637</v>
+        <v>-49.16856104228464</v>
       </c>
       <c r="B35" t="n">
         <v>25.6</v>
@@ -350,7 +350,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-491.8630196072377</v>
+        <v>-49.18630196072377</v>
       </c>
       <c r="B36" t="n">
         <v>26.400000000000002</v>
@@ -358,7 +358,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-492.0366837909927</v>
+        <v>-49.20366837909927</v>
       </c>
       <c r="B37" t="n">
         <v>27.200000000000003</v>
@@ -366,7 +366,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-492.20660151361585</v>
+        <v>-49.220660151361585</v>
       </c>
       <c r="B38" t="n">
         <v>28.0</v>
@@ -374,7 +374,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-492.3727712459305</v>
+        <v>-49.23727712459305</v>
       </c>
       <c r="B39" t="n">
         <v>28.8</v>
@@ -382,7 +382,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-492.53519139079344</v>
+        <v>-49.253519139079344</v>
       </c>
       <c r="B40" t="n">
         <v>29.6</v>
@@ -390,7 +390,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-492.69386028379984</v>
+        <v>-49.269386028379984</v>
       </c>
       <c r="B41" t="n">
         <v>30.400000000000002</v>
@@ -398,7 +398,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-492.84877619398173</v>
+        <v>-49.28487761939817</v>
       </c>
       <c r="B42" t="n">
         <v>31.200000000000003</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-492.9999373245033</v>
+        <v>-49.29999373245033</v>
       </c>
       <c r="B43" t="n">
         <v>32.0</v>
@@ -414,7 +414,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-493.1473418133538</v>
+        <v>-49.31473418133538</v>
       </c>
       <c r="B44" t="n">
         <v>32.800000000000004</v>
@@ -422,7 +422,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-493.29098773403643</v>
+        <v>-49.32909877340364</v>
       </c>
       <c r="B45" t="n">
         <v>33.6</v>
@@ -430,7 +430,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-493.4308730962431</v>
+        <v>-49.34308730962431</v>
       </c>
       <c r="B46" t="n">
         <v>34.4</v>
@@ -438,7 +438,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-493.56699584653825</v>
+        <v>-49.356699584653825</v>
       </c>
       <c r="B47" t="n">
         <v>35.2</v>
@@ -446,7 +446,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-493.6993538690288</v>
+        <v>-49.36993538690288</v>
       </c>
       <c r="B48" t="n">
         <v>36.0</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-493.8279449860329</v>
+        <v>-49.38279449860329</v>
       </c>
       <c r="B49" t="n">
         <v>36.800000000000004</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-493.95276695874713</v>
+        <v>-49.39527669587471</v>
       </c>
       <c r="B50" t="n">
         <v>37.6</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-494.07381748790783</v>
+        <v>-49.40738174879078</v>
       </c>
       <c r="B51" t="n">
         <v>38.400000000000006</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-494.19109421444887</v>
+        <v>-49.41910942144489</v>
       </c>
       <c r="B52" t="n">
         <v>39.2</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-494.3045947201517</v>
+        <v>-49.43045947201517</v>
       </c>
       <c r="B53" t="n">
         <v>40.0</v>
@@ -494,7 +494,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-494.4143165283026</v>
+        <v>-49.44143165283026</v>
       </c>
       <c r="B54" t="n">
         <v>40.800000000000004</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-494.5202571043376</v>
+        <v>-49.45202571043376</v>
       </c>
       <c r="B55" t="n">
         <v>41.6</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-494.62241385648554</v>
+        <v>-49.462241385648554</v>
       </c>
       <c r="B56" t="n">
         <v>42.400000000000006</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-494.7207841364133</v>
+        <v>-49.47207841364133</v>
       </c>
       <c r="B57" t="n">
         <v>43.2</v>
@@ -526,7 +526,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-494.8153652398605</v>
+        <v>-49.48153652398605</v>
       </c>
       <c r="B58" t="n">
         <v>44.0</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-494.9061544072782</v>
+        <v>-49.49061544072782</v>
       </c>
       <c r="B59" t="n">
         <v>44.800000000000004</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-494.99314882446015</v>
+        <v>-49.499314882446015</v>
       </c>
       <c r="B60" t="n">
         <v>45.6</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-495.0763456231755</v>
+        <v>-49.50763456231755</v>
       </c>
       <c r="B61" t="n">
         <v>46.400000000000006</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-495.1557418817987</v>
+        <v>-49.51557418817987</v>
       </c>
       <c r="B62" t="n">
         <v>47.2</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-495.2313346259268</v>
+        <v>-49.52313346259268</v>
       </c>
       <c r="B63" t="n">
         <v>48.0</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-495.30312082901844</v>
+        <v>-49.530312082901844</v>
       </c>
       <c r="B64" t="n">
         <v>48.800000000000004</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-495.371097412999</v>
+        <v>-49.5371097412999</v>
       </c>
       <c r="B65" t="n">
         <v>49.6</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-495.4352612488964</v>
+        <v>-49.54352612488964</v>
       </c>
       <c r="B66" t="n">
         <v>50.400000000000006</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-495.4956091574448</v>
+        <v>-49.54956091574448</v>
       </c>
       <c r="B67" t="n">
         <v>51.2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-497.42286822926985</v>
+        <v>-49.742286822926985</v>
       </c>
       <c r="B68" t="n">
         <v>52.0</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-499.3509244915947</v>
+        <v>-49.93509244915947</v>
       </c>
       <c r="B69" t="n">
         <v>52.800000000000004</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-501.27979409377133</v>
+        <v>-50.12797940937713</v>
       </c>
       <c r="B70" t="n">
         <v>53.6</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-503.2094931153722</v>
+        <v>-50.32094931153722</v>
       </c>
       <c r="B71" t="n">
         <v>54.400000000000006</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-505.1400375669033</v>
+        <v>-50.51400375669033</v>
       </c>
       <c r="B72" t="n">
         <v>55.2</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-507.0714433904868</v>
+        <v>-50.70714433904868</v>
       </c>
       <c r="B73" t="n">
         <v>56.0</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-509.00372646053313</v>
+        <v>-50.90037264605331</v>
       </c>
       <c r="B74" t="n">
         <v>56.800000000000004</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-510.9369025843867</v>
+        <v>-51.09369025843867</v>
       </c>
       <c r="B75" t="n">
         <v>57.6</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-512.8709875029637</v>
+        <v>-51.287098750296366</v>
       </c>
       <c r="B76" t="n">
         <v>58.400000000000006</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-514.805996891356</v>
+        <v>-51.4805996891356</v>
       </c>
       <c r="B77" t="n">
         <v>59.2</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-516.7419463594297</v>
+        <v>-51.67419463594297</v>
       </c>
       <c r="B78" t="n">
         <v>60.0</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-518.6788514523982</v>
+        <v>-51.867885145239825</v>
       </c>
       <c r="B79" t="n">
         <v>60.800000000000004</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-520.6167276513781</v>
+        <v>-52.061672765137814</v>
       </c>
       <c r="B80" t="n">
         <v>61.6</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-522.5555903739337</v>
+        <v>-52.25555903739337</v>
       </c>
       <c r="B81" t="n">
         <v>62.400000000000006</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-524.4954549745921</v>
+        <v>-52.44954549745921</v>
       </c>
       <c r="B82" t="n">
         <v>63.2</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-526.4363367453512</v>
+        <v>-52.643633674535124</v>
       </c>
       <c r="B83" t="n">
         <v>64.0</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-528.3782509161631</v>
+        <v>-52.83782509161631</v>
       </c>
       <c r="B84" t="n">
         <v>64.8</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-530.3212126554075</v>
+        <v>-53.03212126554075</v>
       </c>
       <c r="B85" t="n">
         <v>65.60000000000001</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-531.1885240380891</v>
+        <v>-53.118852403808916</v>
       </c>
       <c r="B86" t="n">
         <v>66.4</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-531.503712810055</v>
+        <v>-53.150371281005505</v>
       </c>
       <c r="B87" t="n">
         <v>67.2</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-531.8152676528964</v>
+        <v>-53.18152676528965</v>
       </c>
       <c r="B88" t="n">
         <v>68.0</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-532.1231878444877</v>
+        <v>-53.21231878444877</v>
       </c>
       <c r="B89" t="n">
         <v>68.8</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-532.4274725727349</v>
+        <v>-53.24274725727349</v>
       </c>
       <c r="B90" t="n">
         <v>69.60000000000001</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-532.7281209363232</v>
+        <v>-53.272812093632325</v>
       </c>
       <c r="B91" t="n">
         <v>70.4</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-533.025131945455</v>
+        <v>-53.3025131945455</v>
       </c>
       <c r="B92" t="n">
         <v>71.2</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-533.3185045225866</v>
+        <v>-53.331850452258664</v>
       </c>
       <c r="B93" t="n">
         <v>72.0</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-533.6082375031444</v>
+        <v>-53.36082375031444</v>
       </c>
       <c r="B94" t="n">
         <v>72.8</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-533.8943296362481</v>
+        <v>-53.38943296362481</v>
       </c>
       <c r="B95" t="n">
         <v>73.60000000000001</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-534.1767795854099</v>
+        <v>-53.41767795854099</v>
       </c>
       <c r="B96" t="n">
         <v>74.4</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-534.4555859292439</v>
+        <v>-53.445558592924385</v>
       </c>
       <c r="B97" t="n">
         <v>75.2</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-534.7307471621508</v>
+        <v>-53.47307471621508</v>
       </c>
       <c r="B98" t="n">
         <v>76.0</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-535.0022616950062</v>
+        <v>-53.50022616950062</v>
       </c>
       <c r="B99" t="n">
         <v>76.80000000000001</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-535.2701278558442</v>
+        <v>-53.52701278558442</v>
       </c>
       <c r="B100" t="n">
         <v>77.60000000000001</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-535.5343438905195</v>
+        <v>-53.553434389051944</v>
       </c>
       <c r="B101" t="n">
         <v>78.4</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-535.7949079633877</v>
+        <v>-53.579490796338774</v>
       </c>
       <c r="B102" t="n">
         <v>79.2</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-536.051818157946</v>
+        <v>-53.605181815794595</v>
       </c>
       <c r="B103" t="n">
         <v>80.0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-536.3050724775021</v>
+        <v>-53.63050724775022</v>
       </c>
       <c r="B104" t="n">
         <v>80.80000000000001</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-536.5546688458113</v>
+        <v>-53.65546688458113</v>
       </c>
       <c r="B105" t="n">
         <v>81.60000000000001</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-536.8006051077236</v>
+        <v>-53.680060510772364</v>
       </c>
       <c r="B106" t="n">
         <v>82.4</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-537.042879029816</v>
+        <v>-53.704287902981605</v>
       </c>
       <c r="B107" t="n">
         <v>83.2</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-537.2814883010204</v>
+        <v>-53.72814883010204</v>
       </c>
       <c r="B108" t="n">
         <v>84.0</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-537.5164305332567</v>
+        <v>-53.751643053325665</v>
       </c>
       <c r="B109" t="n">
         <v>84.80000000000001</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-537.7477032620419</v>
+        <v>-53.77477032620419</v>
       </c>
       <c r="B110" t="n">
         <v>85.60000000000001</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-537.9753039471109</v>
+        <v>-53.79753039471109</v>
       </c>
       <c r="B111" t="n">
         <v>86.4</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-538.1992299730246</v>
+        <v>-53.819922997302456</v>
       </c>
       <c r="B112" t="n">
         <v>87.2</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-538.4194786497769</v>
+        <v>-53.8419478649777</v>
       </c>
       <c r="B113" t="n">
         <v>88.0</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-538.6360472133899</v>
+        <v>-53.86360472133899</v>
       </c>
       <c r="B114" t="n">
         <v>88.80000000000001</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-538.8489328265198</v>
+        <v>-53.88489328265197</v>
       </c>
       <c r="B115" t="n">
         <v>89.60000000000001</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-539.0581325790354</v>
+        <v>-53.90581325790353</v>
       </c>
       <c r="B116" t="n">
         <v>90.4</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-539.2636434886174</v>
+        <v>-53.92636434886174</v>
       </c>
       <c r="B117" t="n">
         <v>91.2</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-539.4654625013404</v>
+        <v>-53.94654625013405</v>
       </c>
       <c r="B118" t="n">
         <v>92.0</v>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-539.6635864922487</v>
+        <v>-53.96635864922487</v>
       </c>
       <c r="B119" t="n">
         <v>92.80000000000001</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-539.8580122659337</v>
+        <v>-53.98580122659337</v>
       </c>
       <c r="B120" t="n">
         <v>93.60000000000001</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-540.0487365571161</v>
+        <v>-54.004873655711606</v>
       </c>
       <c r="B121" t="n">
         <v>94.4</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-540.2357560312018</v>
+        <v>-54.02357560312018</v>
       </c>
       <c r="B122" t="n">
         <v>95.2</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-540.419067284858</v>
+        <v>-54.0419067284858</v>
       </c>
       <c r="B123" t="n">
         <v>96.0</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-540.5986668465761</v>
+        <v>-54.05986668465761</v>
       </c>
       <c r="B124" t="n">
         <v>96.80000000000001</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-540.7745511772307</v>
+        <v>-54.077455117723076</v>
       </c>
       <c r="B125" t="n">
         <v>97.60000000000001</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-540.946716670634</v>
+        <v>-54.09467166706341</v>
       </c>
       <c r="B126" t="n">
         <v>98.4</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-541.1151596541026</v>
+        <v>-54.11151596541026</v>
       </c>
       <c r="B127" t="n">
         <v>99.2</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-541.2798763889944</v>
+        <v>-54.12798763889944</v>
       </c>
       <c r="B128" t="n">
         <v>100.0</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-541.4408630712734</v>
+        <v>-54.14408630712734</v>
       </c>
       <c r="B129" t="n">
         <v>100.80000000000001</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-541.5981158320471</v>
+        <v>-54.159811583204714</v>
       </c>
       <c r="B130" t="n">
         <v>101.60000000000001</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-541.7516307381229</v>
+        <v>-54.175163073812286</v>
       </c>
       <c r="B131" t="n">
         <v>102.4</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-541.901403792541</v>
+        <v>-54.1901403792541</v>
       </c>
       <c r="B132" t="n">
         <v>103.2</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-542.0474309351266</v>
+        <v>-54.20474309351266</v>
       </c>
       <c r="B133" t="n">
         <v>104.0</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-542.1897080430222</v>
+        <v>-54.21897080430222</v>
       </c>
       <c r="B134" t="n">
         <v>104.80000000000001</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-542.3282309312333</v>
+        <v>-54.23282309312333</v>
       </c>
       <c r="B135" t="n">
         <v>105.60000000000001</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-542.4629953531593</v>
+        <v>-54.24629953531593</v>
       </c>
       <c r="B136" t="n">
         <v>106.4</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-542.5939970011345</v>
+        <v>-54.25939970011345</v>
       </c>
       <c r="B137" t="n">
         <v>107.2</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-542.7212315069598</v>
+        <v>-54.27212315069599</v>
       </c>
       <c r="B138" t="n">
         <v>108.0</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-542.8446944424354</v>
+        <v>-54.28446944424354</v>
       </c>
       <c r="B139" t="n">
         <v>108.80000000000001</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-542.9643813198973</v>
+        <v>-54.29643813198973</v>
       </c>
       <c r="B140" t="n">
         <v>109.60000000000001</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-545.0227217971371</v>
+        <v>-54.502272179713714</v>
       </c>
       <c r="B141" t="n">
         <v>110.4</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-545.135892061719</v>
+        <v>-54.5135892061719</v>
       </c>
       <c r="B142" t="n">
         <v>111.2</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-545.2452727404282</v>
+        <v>-54.52452727404281</v>
       </c>
       <c r="B143" t="n">
         <v>112.0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-547.2975290896429</v>
+        <v>-54.72975290896429</v>
       </c>
       <c r="B144" t="n">
         <v>112.80000000000001</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-547.4003816144898</v>
+        <v>-54.74003816144898</v>
       </c>
       <c r="B145" t="n">
         <v>113.60000000000001</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-549.4493641349359</v>
+        <v>-54.94493641349359</v>
       </c>
       <c r="B146" t="n">
         <v>114.4</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-549.5456847553618</v>
+        <v>-54.95456847553618</v>
       </c>
       <c r="B147" t="n">
         <v>115.2</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-551.5914664685153</v>
+        <v>-55.159146646851525</v>
       </c>
       <c r="B148" t="n">
         <v>116.0</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-553.6368315067295</v>
+        <v>-55.363683150672955</v>
       </c>
       <c r="B149" t="n">
         <v>116.80000000000001</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-555.5936361281024</v>
+        <v>-55.559363612810245</v>
       </c>
       <c r="B150" t="n">
         <v>117.60000000000001</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-557.6410229896402</v>
+        <v>-55.76410229896402</v>
       </c>
       <c r="B151" t="n">
         <v>118.4</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>-559.6014778277322</v>
+        <v>-55.96014778277322</v>
       </c>
       <c r="B152" t="n">
         <v>119.2</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-561.5632148714542</v>
+        <v>-56.15632148714542</v>
       </c>
       <c r="B153" t="n">
         <v>120.0</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>-563.5262482979459</v>
+        <v>-56.35262482979459</v>
       </c>
       <c r="B154" t="n">
         <v>120.80000000000001</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-565.4905922283806</v>
+        <v>-56.54905922283805</v>
       </c>
       <c r="B155" t="n">
         <v>121.60000000000001</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-567.4562607281246</v>
+        <v>-56.745626072812456</v>
       </c>
       <c r="B156" t="n">
         <v>122.4</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-569.4232678068895</v>
+        <v>-56.942326780688944</v>
       </c>
       <c r="B157" t="n">
         <v>123.2</v>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-571.3916274188495</v>
+        <v>-57.139162741884945</v>
       </c>
       <c r="B158" t="n">
         <v>124.0</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-573.361353462767</v>
+        <v>-57.336135346276706</v>
       </c>
       <c r="B159" t="n">
         <v>124.80000000000001</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>-575.3324597820853</v>
+        <v>-57.53324597820853</v>
       </c>
       <c r="B160" t="n">
         <v>125.60000000000001</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-577.2032707125393</v>
+        <v>-57.720327071253934</v>
       </c>
       <c r="B161" t="n">
         <v>126.4</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-579.1758528186883</v>
+        <v>-57.91758528186884</v>
       </c>
       <c r="B162" t="n">
         <v>127.2</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>-581.0416556494772</v>
+        <v>-58.10416556494772</v>
       </c>
       <c r="B163" t="n">
         <v>128.0</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-582.9023382649461</v>
+        <v>-58.290233826494614</v>
       </c>
       <c r="B164" t="n">
         <v>128.8</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-582.7851642012822</v>
+        <v>-58.27851642012823</v>
       </c>
       <c r="B165" t="n">
         <v>129.6</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-584.6355148843793</v>
+        <v>-58.46355148843793</v>
       </c>
       <c r="B166" t="n">
         <v>130.4</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-584.509360865801</v>
+        <v>-58.4509360865801</v>
       </c>
       <c r="B167" t="n">
         <v>131.20000000000002</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-586.349337115013</v>
+        <v>-58.634933711501304</v>
       </c>
       <c r="B168" t="n">
         <v>132.0</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-586.214213990726</v>
+        <v>-58.6214213990726</v>
       </c>
       <c r="B169" t="n">
         <v>132.8</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-586.0753120587001</v>
+        <v>-58.60753120587</v>
       </c>
       <c r="B170" t="n">
         <v>133.6</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-587.8996933918111</v>
+        <v>-58.78996933918111</v>
       </c>
       <c r="B171" t="n">
         <v>134.4</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-587.7518471621562</v>
+        <v>-58.77518471621562</v>
       </c>
       <c r="B172" t="n">
         <v>135.20000000000002</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-587.6002418000388</v>
+        <v>-58.76002418000388</v>
       </c>
       <c r="B173" t="n">
         <v>136.0</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-587.4448834604593</v>
+        <v>-58.74448834604593</v>
       </c>
       <c r="B174" t="n">
         <v>136.8</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-587.2857782324625</v>
+        <v>-58.72857782324624</v>
       </c>
       <c r="B175" t="n">
         <v>137.6</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-587.1229321387125</v>
+        <v>-58.71229321387125</v>
       </c>
       <c r="B176" t="n">
         <v>138.4</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-586.95635113507</v>
+        <v>-58.695635113506995</v>
       </c>
       <c r="B177" t="n">
         <v>139.20000000000002</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-586.7860411101691</v>
+        <v>-58.67860411101691</v>
       </c>
       <c r="B178" t="n">
         <v>140.0</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-586.6120078849983</v>
+        <v>-58.661200788499826</v>
       </c>
       <c r="B179" t="n">
         <v>140.8</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-586.4342572124738</v>
+        <v>-58.64342572124738</v>
       </c>
       <c r="B180" t="n">
         <v>141.6</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-586.2527947770147</v>
+        <v>-58.62527947770147</v>
       </c>
       <c r="B181" t="n">
         <v>142.4</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-586.0676261941264</v>
+        <v>-58.60676261941265</v>
       </c>
       <c r="B182" t="n">
         <v>143.20000000000002</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-585.878757009969</v>
+        <v>-58.587875700996904</v>
       </c>
       <c r="B183" t="n">
         <v>144.0</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-585.6861927009396</v>
+        <v>-58.56861927009396</v>
       </c>
       <c r="B184" t="n">
         <v>144.8</v>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-585.4899386732404</v>
+        <v>-58.54899386732404</v>
       </c>
       <c r="B185" t="n">
         <v>145.6</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>-585.2900002624585</v>
+        <v>-58.52900002624585</v>
       </c>
       <c r="B186" t="n">
         <v>146.4</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-585.086382733135</v>
+        <v>-58.508638273313494</v>
       </c>
       <c r="B187" t="n">
         <v>147.20000000000002</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>-584.8790912783392</v>
+        <v>-58.487909127833916</v>
       </c>
       <c r="B188" t="n">
         <v>148.0</v>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-584.6681310192361</v>
+        <v>-58.466813101923606</v>
       </c>
       <c r="B189" t="n">
         <v>148.8</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>-584.4535070046578</v>
+        <v>-58.44535070046578</v>
       </c>
       <c r="B190" t="n">
         <v>149.6</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-584.2352242106739</v>
+        <v>-58.42352242106739</v>
       </c>
       <c r="B191" t="n">
         <v>150.4</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-584.0132875401537</v>
+        <v>-58.40132875401537</v>
       </c>
       <c r="B192" t="n">
         <v>151.20000000000002</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>-583.7877018223307</v>
+        <v>-58.37877018223307</v>
       </c>
       <c r="B193" t="n">
         <v>152.0</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-583.5584718123696</v>
+        <v>-58.35584718123695</v>
       </c>
       <c r="B194" t="n">
         <v>152.8</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-583.3256021909239</v>
+        <v>-58.332560219092386</v>
       </c>
       <c r="B195" t="n">
         <v>153.60000000000002</v>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>-583.0890975636933</v>
+        <v>-58.30890975636933</v>
       </c>
       <c r="B196" t="n">
         <v>154.4</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>-582.8489624609833</v>
+        <v>-58.28489624609833</v>
       </c>
       <c r="B197" t="n">
         <v>155.20000000000002</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-582.6052013372595</v>
+        <v>-58.26052013372595</v>
       </c>
       <c r="B198" t="n">
         <v>156.0</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>-582.3578185706953</v>
+        <v>-58.235781857069526</v>
       </c>
       <c r="B199" t="n">
         <v>156.8</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-582.1068184627254</v>
+        <v>-58.210681846272536</v>
       </c>
       <c r="B200" t="n">
         <v>157.60000000000002</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>-581.8522052375906</v>
+        <v>-58.18522052375906</v>
       </c>
       <c r="B201" t="n">
         <v>158.4</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>-581.5939830418807</v>
+        <v>-58.15939830418807</v>
       </c>
       <c r="B202" t="n">
         <v>159.20000000000002</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>-581.332155944074</v>
+        <v>-58.1332155944074</v>
       </c>
       <c r="B203" t="n">
         <v>160.0</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>-581.0667279340782</v>
+        <v>-58.106672793407824</v>
       </c>
       <c r="B204" t="n">
         <v>160.8</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>-580.7977029227593</v>
+        <v>-58.079770292275924</v>
       </c>
       <c r="B205" t="n">
         <v>161.60000000000002</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>-580.5250847414779</v>
+        <v>-58.0525084741478</v>
       </c>
       <c r="B206" t="n">
         <v>162.4</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>-580.2488771416114</v>
+        <v>-58.02488771416114</v>
       </c>
       <c r="B207" t="n">
         <v>163.20000000000002</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>-579.969083794079</v>
+        <v>-57.9969083794079</v>
       </c>
       <c r="B208" t="n">
         <v>164.0</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>-579.6857082888619</v>
+        <v>-57.968570828886186</v>
       </c>
       <c r="B209" t="n">
         <v>164.8</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>-579.3987541345175</v>
+        <v>-57.939875413451745</v>
       </c>
       <c r="B210" t="n">
         <v>165.60000000000002</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>-579.1082247576895</v>
+        <v>-57.91082247576895</v>
       </c>
       <c r="B211" t="n">
         <v>166.4</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>-578.8141235026196</v>
+        <v>-57.88141235026197</v>
       </c>
       <c r="B212" t="n">
         <v>167.20000000000002</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>-578.5164536306439</v>
+        <v>-57.85164536306439</v>
       </c>
       <c r="B213" t="n">
         <v>168.0</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>-578.2152183196933</v>
+        <v>-57.821521831969335</v>
       </c>
       <c r="B214" t="n">
         <v>168.8</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>-577.9104206637874</v>
+        <v>-57.791042066378736</v>
       </c>
       <c r="B215" t="n">
         <v>169.60000000000002</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>-577.6020636725204</v>
+        <v>-57.76020636725204</v>
       </c>
       <c r="B216" t="n">
         <v>170.4</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>-577.2901502705474</v>
+        <v>-57.72901502705474</v>
       </c>
       <c r="B217" t="n">
         <v>171.20000000000002</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>-576.9746832970577</v>
+        <v>-57.69746832970577</v>
       </c>
       <c r="B218" t="n">
         <v>172.0</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>-576.6556655052523</v>
+        <v>-57.66556655052523</v>
       </c>
       <c r="B219" t="n">
         <v>172.8</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>-576.3330995618031</v>
+        <v>-57.63330995618031</v>
       </c>
       <c r="B220" t="n">
         <v>173.60000000000002</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>-576.00698804632</v>
+        <v>-57.600698804632</v>
       </c>
       <c r="B221" t="n">
         <v>174.4</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>-575.6773334508085</v>
+        <v>-57.56773334508085</v>
       </c>
       <c r="B222" t="n">
         <v>175.20000000000002</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>-575.344138179106</v>
+        <v>-57.534413817910604</v>
       </c>
       <c r="B223" t="n">
         <v>176.0</v>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>-575.0074045463421</v>
+        <v>-57.50074045463421</v>
       </c>
       <c r="B224" t="n">
         <v>176.8</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>-574.6671347783558</v>
+        <v>-57.46671347783558</v>
       </c>
       <c r="B225" t="n">
         <v>177.60000000000002</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>-587.9403873860792</v>
+        <v>-58.794038738607924</v>
       </c>
       <c r="B226" t="n">
         <v>178.4</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>-588.2898985092413</v>
+        <v>-58.82898985092413</v>
       </c>
       <c r="B227" t="n">
         <v>179.20000000000002</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>-588.6359051698573</v>
+        <v>-58.86359051698574</v>
       </c>
       <c r="B228" t="n">
         <v>180.0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>-588.9784047245172</v>
+        <v>-58.89784047245172</v>
       </c>
       <c r="B229" t="n">
         <v>180.8</v>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>-589.3173944400883</v>
+        <v>-58.93173944400883</v>
       </c>
       <c r="B230" t="n">
         <v>181.60000000000002</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>-589.6528714942281</v>
+        <v>-58.96528714942281</v>
       </c>
       <c r="B231" t="n">
         <v>182.4</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>-589.9848329758862</v>
+        <v>-58.99848329758862</v>
       </c>
       <c r="B232" t="n">
         <v>183.20000000000002</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>-590.3132758858058</v>
+        <v>-59.03132758858058</v>
       </c>
       <c r="B233" t="n">
         <v>184.0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>-590.6381971370149</v>
+        <v>-59.06381971370149</v>
       </c>
       <c r="B234" t="n">
         <v>184.8</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>-590.9595935553153</v>
+        <v>-59.095959355531534</v>
       </c>
       <c r="B235" t="n">
         <v>185.60000000000002</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>-591.2774618797605</v>
+        <v>-59.127746187976044</v>
       </c>
       <c r="B236" t="n">
         <v>186.4</v>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>-591.591798763136</v>
+        <v>-59.1591798763136</v>
       </c>
       <c r="B237" t="n">
         <v>187.20000000000002</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>-591.9026007724299</v>
+        <v>-59.19026007724298</v>
       </c>
       <c r="B238" t="n">
         <v>188.0</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>-592.2098643892997</v>
+        <v>-59.22098643892997</v>
       </c>
       <c r="B239" t="n">
         <v>188.8</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>-592.513586010536</v>
+        <v>-59.251358601053596</v>
       </c>
       <c r="B240" t="n">
         <v>189.60000000000002</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>-592.8137619485159</v>
+        <v>-59.28137619485159</v>
       </c>
       <c r="B241" t="n">
         <v>190.4</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>-593.110388431661</v>
+        <v>-59.3110388431661</v>
       </c>
       <c r="B242" t="n">
         <v>191.20000000000002</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>-593.4034616048823</v>
+        <v>-59.340346160488224</v>
       </c>
       <c r="B243" t="n">
         <v>192.0</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>-593.6929775300293</v>
+        <v>-59.36929775300294</v>
       </c>
       <c r="B244" t="n">
         <v>192.8</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>-593.978932186327</v>
+        <v>-59.3978932186327</v>
       </c>
       <c r="B245" t="n">
         <v>193.60000000000002</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>-594.2613214708124</v>
+        <v>-59.42613214708123</v>
       </c>
       <c r="B246" t="n">
         <v>194.4</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>-594.5401411987723</v>
+        <v>-59.45401411987723</v>
       </c>
       <c r="B247" t="n">
         <v>195.20000000000002</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>-594.8153871041688</v>
+        <v>-59.481538710416885</v>
       </c>
       <c r="B248" t="n">
         <v>196.0</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>-595.0870548400665</v>
+        <v>-59.50870548400664</v>
       </c>
       <c r="B249" t="n">
         <v>196.8</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>-595.3551399790592</v>
+        <v>-59.53551399790592</v>
       </c>
       <c r="B250" t="n">
         <v>197.60000000000002</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>-595.6196380136834</v>
+        <v>-59.561963801368336</v>
       </c>
       <c r="B251" t="n">
         <v>198.4</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>-595.8805443568415</v>
+        <v>-59.58805443568414</v>
       </c>
       <c r="B252" t="n">
         <v>199.20000000000002</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>-596.1378543422114</v>
+        <v>-59.61378543422114</v>
       </c>
       <c r="B253" t="n">
         <v>200.0</v>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>-596.3915632246621</v>
+        <v>-59.63915632246622</v>
       </c>
       <c r="B254" t="n">
         <v>200.8</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>-596.6416661806566</v>
+        <v>-59.66416661806565</v>
       </c>
       <c r="B255" t="n">
         <v>201.60000000000002</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>-596.8881583086682</v>
+        <v>-59.688815830866815</v>
       </c>
       <c r="B256" t="n">
         <v>202.4</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>-597.1310346295727</v>
+        <v>-59.713103462957264</v>
       </c>
       <c r="B257" t="n">
         <v>203.20000000000002</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>-597.3702900870578</v>
+        <v>-59.737029008705775</v>
       </c>
       <c r="B258" t="n">
         <v>204.0</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>-597.6059195480252</v>
+        <v>-59.76059195480252</v>
       </c>
       <c r="B259" t="n">
         <v>204.8</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>-597.837917802978</v>
+        <v>-59.783791780297804</v>
       </c>
       <c r="B260" t="n">
         <v>205.60000000000002</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>-598.0662795664301</v>
+        <v>-59.80662795664301</v>
       </c>
       <c r="B261" t="n">
         <v>206.4</v>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>-598.290999477289</v>
+        <v>-59.829099947728906</v>
       </c>
       <c r="B262" t="n">
         <v>207.20000000000002</v>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>-598.512072099258</v>
+        <v>-59.8512072099258</v>
       </c>
       <c r="B263" t="n">
         <v>208.0</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>-598.7294919212229</v>
+        <v>-59.87294919212229</v>
       </c>
       <c r="B264" t="n">
         <v>208.8</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>-598.9432533576414</v>
+        <v>-59.89432533576414</v>
       </c>
       <c r="B265" t="n">
         <v>209.60000000000002</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>-599.1533507489356</v>
+        <v>-59.91533507489356</v>
       </c>
       <c r="B266" t="n">
         <v>210.4</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>-599.3597783618761</v>
+        <v>-59.93597783618762</v>
       </c>
       <c r="B267" t="n">
         <v>211.20000000000002</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>-599.5625303899747</v>
+        <v>-59.95625303899746</v>
       </c>
       <c r="B268" t="n">
         <v>212.0</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>-599.7616009538649</v>
+        <v>-59.97616009538649</v>
       </c>
       <c r="B269" t="n">
         <v>212.8</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>-599.9569841016893</v>
+        <v>-59.99569841016893</v>
       </c>
       <c r="B270" t="n">
         <v>213.60000000000002</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>-600.1486738094894</v>
+        <v>-60.01486738094894</v>
       </c>
       <c r="B271" t="n">
         <v>214.4</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>-600.3366639815827</v>
+        <v>-60.03366639815826</v>
       </c>
       <c r="B272" t="n">
         <v>215.20000000000002</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>-600.5209484509498</v>
+        <v>-60.052094845094985</v>
       </c>
       <c r="B273" t="n">
         <v>216.0</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>-600.7015209796219</v>
+        <v>-60.07015209796219</v>
       </c>
       <c r="B274" t="n">
         <v>216.8</v>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>-600.8783752590605</v>
+        <v>-60.08783752590605</v>
       </c>
       <c r="B275" t="n">
         <v>217.60000000000002</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>-601.051504910543</v>
+        <v>-60.1051504910543</v>
       </c>
       <c r="B276" t="n">
         <v>218.4</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>-601.2209034855471</v>
+        <v>-60.12209034855471</v>
       </c>
       <c r="B277" t="n">
         <v>219.20000000000002</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>-601.386564466135</v>
+        <v>-60.13865644661351</v>
       </c>
       <c r="B278" t="n">
         <v>220.0</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>-601.5484812653386</v>
+        <v>-60.154848126533864</v>
       </c>
       <c r="B279" t="n">
         <v>220.8</v>
@@ -2302,7 +2302,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>-601.7066472275428</v>
+        <v>-60.17066472275428</v>
       </c>
       <c r="B280" t="n">
         <v>221.60000000000002</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>-601.8610556288752</v>
+        <v>-60.18610556288752</v>
       </c>
       <c r="B281" t="n">
         <v>222.4</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>-602.0116996775886</v>
+        <v>-60.20116996775886</v>
       </c>
       <c r="B282" t="n">
         <v>223.20000000000002</v>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>-602.1585725144513</v>
+        <v>-60.21585725144513</v>
       </c>
       <c r="B283" t="n">
         <v>224.0</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>-602.3016672131342</v>
+        <v>-60.230166721313424</v>
       </c>
       <c r="B284" t="n">
         <v>224.8</v>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>-602.4409767806014</v>
+        <v>-60.24409767806014</v>
       </c>
       <c r="B285" t="n">
         <v>225.60000000000002</v>
@@ -2350,7 +2350,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>-602.5764941574996</v>
+        <v>-60.25764941574997</v>
       </c>
       <c r="B286" t="n">
         <v>226.4</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>-602.7082122185493</v>
+        <v>-60.27082122185493</v>
       </c>
       <c r="B287" t="n">
         <v>227.20000000000002</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>-602.8361237729414</v>
+        <v>-60.28361237729413</v>
       </c>
       <c r="B288" t="n">
         <v>228.0</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>-602.9602215647285</v>
+        <v>-60.296022156472844</v>
       </c>
       <c r="B289" t="n">
         <v>228.8</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>-603.0804982732252</v>
+        <v>-60.30804982732252</v>
       </c>
       <c r="B290" t="n">
         <v>229.60000000000002</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>-605.0739324455117</v>
+        <v>-60.50739324455117</v>
       </c>
       <c r="B291" t="n">
         <v>230.4</v>
@@ -2398,7 +2398,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>-607.0689608866408</v>
+        <v>-60.70689608866408</v>
       </c>
       <c r="B292" t="n">
         <v>231.20000000000002</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>-609.065596500036</v>
+        <v>-60.9065596500036</v>
       </c>
       <c r="B293" t="n">
         <v>232.0</v>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>-611.063852132985</v>
+        <v>-61.106385213298495</v>
       </c>
       <c r="B294" t="n">
         <v>232.8</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>-613.0637405764539</v>
+        <v>-61.3063740576454</v>
       </c>
       <c r="B295" t="n">
         <v>233.60000000000002</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>-615.0652745648815</v>
+        <v>-61.50652745648816</v>
       </c>
       <c r="B296" t="n">
         <v>234.4</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>-617.0684667759622</v>
+        <v>-61.70684667759622</v>
       </c>
       <c r="B297" t="n">
         <v>235.20000000000002</v>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>-619.073329830409</v>
+        <v>-61.9073329830409</v>
       </c>
       <c r="B298" t="n">
         <v>236.0</v>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>-621.0798762917057</v>
+        <v>-62.107987629170566</v>
       </c>
       <c r="B299" t="n">
         <v>236.8</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>-623.0881186658439</v>
+        <v>-62.30881186658439</v>
       </c>
       <c r="B300" t="n">
         <v>237.60000000000002</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>-625.0980694010389</v>
+        <v>-62.509806940103886</v>
       </c>
       <c r="B301" t="n">
         <v>238.4</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>-627.1097408874366</v>
+        <v>-62.710974088743654</v>
       </c>
       <c r="B302" t="n">
         <v>239.20000000000002</v>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>-629.1231454568054</v>
+        <v>-62.912314545680545</v>
       </c>
       <c r="B303" t="n">
         <v>240.0</v>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>-631.1382953822061</v>
+        <v>-63.113829538220614</v>
       </c>
       <c r="B304" t="n">
         <v>240.8</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>-633.1552028776546</v>
+        <v>-63.31552028776545</v>
       </c>
       <c r="B305" t="n">
         <v>241.60000000000002</v>
@@ -2510,7 +2510,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>-635.1738800977591</v>
+        <v>-63.517388009775914</v>
       </c>
       <c r="B306" t="n">
         <v>242.4</v>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>-637.1943391373566</v>
+        <v>-63.71943391373566</v>
       </c>
       <c r="B307" t="n">
         <v>243.20000000000002</v>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>587.6254434665913</v>
+        <v>193.76254434665913</v>
       </c>
       <c r="B308" t="n">
         <v>243.20000000000002</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>587.9324671215181</v>
+        <v>193.7932467121518</v>
       </c>
       <c r="B309" t="n">
         <v>242.4</v>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>588.2432913355404</v>
+        <v>193.82432913355404</v>
       </c>
       <c r="B310" t="n">
         <v>241.60000000000002</v>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>588.5579188035479</v>
+        <v>193.8557918803548</v>
       </c>
       <c r="B311" t="n">
         <v>240.8</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>588.876352328258</v>
+        <v>193.8876352328258</v>
       </c>
       <c r="B312" t="n">
         <v>240.0</v>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>589.1985948214494</v>
+        <v>193.91985948214494</v>
       </c>
       <c r="B313" t="n">
         <v>239.20000000000002</v>
@@ -2574,7 +2574,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>589.5246493052241</v>
+        <v>193.9524649305224</v>
       </c>
       <c r="B314" t="n">
         <v>238.4</v>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>589.8545189132761</v>
+        <v>193.9854518913276</v>
       </c>
       <c r="B315" t="n">
         <v>237.60000000000002</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>590.1882068921878</v>
+        <v>194.01882068921878</v>
       </c>
       <c r="B316" t="n">
         <v>236.8</v>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>590.5257166027383</v>
+        <v>194.05257166027383</v>
       </c>
       <c r="B317" t="n">
         <v>236.0</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>590.8670515212384</v>
+        <v>194.08670515212384</v>
       </c>
       <c r="B318" t="n">
         <v>235.20000000000002</v>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>591.2122152408756</v>
+        <v>194.12122152408756</v>
       </c>
       <c r="B319" t="n">
         <v>234.4</v>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>591.5612114730942</v>
+        <v>194.15612114730942</v>
       </c>
       <c r="B320" t="n">
         <v>233.60000000000002</v>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>591.9140440489809</v>
+        <v>194.1914044048981</v>
       </c>
       <c r="B321" t="n">
         <v>232.8</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>592.2707169206836</v>
+        <v>194.22707169206836</v>
       </c>
       <c r="B322" t="n">
         <v>232.0</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>592.6312341628488</v>
+        <v>194.26312341628488</v>
       </c>
       <c r="B323" t="n">
         <v>231.20000000000002</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>592.995599974073</v>
+        <v>194.2995599974073</v>
       </c>
       <c r="B324" t="n">
         <v>230.4</v>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>593.3638186783929</v>
+        <v>194.3363818678393</v>
       </c>
       <c r="B325" t="n">
         <v>229.60000000000002</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>595.2466559944043</v>
+        <v>194.52466559944043</v>
       </c>
       <c r="B326" t="n">
         <v>228.8</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>597.1301395533789</v>
+        <v>194.71301395533789</v>
       </c>
       <c r="B327" t="n">
         <v>228.0</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>599.0142868182454</v>
+        <v>194.90142868182454</v>
       </c>
       <c r="B328" t="n">
         <v>227.20000000000002</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>600.8991154298116</v>
+        <v>195.08991154298116</v>
       </c>
       <c r="B329" t="n">
         <v>226.4</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>602.7846432090297</v>
+        <v>195.27846432090297</v>
       </c>
       <c r="B330" t="n">
         <v>225.60000000000002</v>
@@ -2710,7 +2710,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>604.6708881593327</v>
+        <v>195.46708881593327</v>
       </c>
       <c r="B331" t="n">
         <v>224.8</v>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>606.5578684690081</v>
+        <v>195.6557868469008</v>
       </c>
       <c r="B332" t="n">
         <v>224.0</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>608.4456025136421</v>
+        <v>195.84456025136421</v>
       </c>
       <c r="B333" t="n">
         <v>223.20000000000002</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>610.3341088586006</v>
+        <v>196.03341088586006</v>
       </c>
       <c r="B334" t="n">
         <v>222.4</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>612.2234062615826</v>
+        <v>196.22234062615826</v>
       </c>
       <c r="B335" t="n">
         <v>221.60000000000002</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>614.1135136752257</v>
+        <v>196.41135136752257</v>
       </c>
       <c r="B336" t="n">
         <v>220.8</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>616.0044502497669</v>
+        <v>196.6004450249767</v>
       </c>
       <c r="B337" t="n">
         <v>220.0</v>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>617.896235335777</v>
+        <v>196.7896235335777</v>
       </c>
       <c r="B338" t="n">
         <v>219.20000000000002</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>619.7888884869406</v>
+        <v>196.97888884869406</v>
       </c>
       <c r="B339" t="n">
         <v>218.4</v>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>621.6824294629129</v>
+        <v>197.1682429462913</v>
       </c>
       <c r="B340" t="n">
         <v>217.60000000000002</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>623.5768782322373</v>
+        <v>197.35768782322373</v>
       </c>
       <c r="B341" t="n">
         <v>216.8</v>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>625.4722549753296</v>
+        <v>197.54722549753296</v>
       </c>
       <c r="B342" t="n">
         <v>216.0</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>627.3685800875307</v>
+        <v>197.73685800875307</v>
       </c>
       <c r="B343" t="n">
         <v>215.20000000000002</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>629.2658741822316</v>
+        <v>197.92658741822316</v>
       </c>
       <c r="B344" t="n">
         <v>214.4</v>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>631.1641580940693</v>
+        <v>198.11641580940693</v>
       </c>
       <c r="B345" t="n">
         <v>213.60000000000002</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>633.0634528821923</v>
+        <v>198.30634528821923</v>
       </c>
       <c r="B346" t="n">
         <v>212.8</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>634.9637798336101</v>
+        <v>198.49637798336101</v>
       </c>
       <c r="B347" t="n">
         <v>212.0</v>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>636.8651604666127</v>
+        <v>198.68651604666127</v>
       </c>
       <c r="B348" t="n">
         <v>211.20000000000002</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>638.7676165342765</v>
+        <v>198.87676165342765</v>
       </c>
       <c r="B349" t="n">
         <v>210.4</v>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>640.6711700280391</v>
+        <v>199.0671170028039</v>
       </c>
       <c r="B350" t="n">
         <v>209.60000000000002</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>642.5758431813779</v>
+        <v>199.2575843181378</v>
       </c>
       <c r="B351" t="n">
         <v>208.8</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>644.4816584735503</v>
+        <v>199.44816584735503</v>
       </c>
       <c r="B352" t="n">
         <v>208.0</v>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>646.3886386334451</v>
+        <v>199.6388638633445</v>
       </c>
       <c r="B353" t="n">
         <v>207.20000000000002</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>648.2968066435024</v>
+        <v>199.82968066435024</v>
       </c>
       <c r="B354" t="n">
         <v>206.4</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>650.206185743744</v>
+        <v>200.0206185743744</v>
       </c>
       <c r="B355" t="n">
         <v>205.60000000000002</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>652.1167994358905</v>
+        <v>200.21167994358905</v>
       </c>
       <c r="B356" t="n">
         <v>204.8</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>654.0286714875685</v>
+        <v>200.40286714875685</v>
       </c>
       <c r="B357" t="n">
         <v>204.0</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>655.9418259366407</v>
+        <v>200.59418259366407</v>
       </c>
       <c r="B358" t="n">
         <v>203.20000000000002</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>657.8562870956063</v>
+        <v>200.78562870956063</v>
       </c>
       <c r="B359" t="n">
         <v>202.4</v>
@@ -2942,7 +2942,7 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>659.7720795561349</v>
+        <v>200.9772079556135</v>
       </c>
       <c r="B360" t="n">
         <v>201.60000000000002</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>661.6892281936993</v>
+        <v>201.16892281936993</v>
       </c>
       <c r="B361" t="n">
         <v>200.8</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>663.6077581723066</v>
+        <v>201.36077581723066</v>
       </c>
       <c r="B362" t="n">
         <v>200.0</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>665.527694949368</v>
+        <v>201.5527694949368</v>
       </c>
       <c r="B363" t="n">
         <v>199.20000000000002</v>
@@ -2974,7 +2974,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>667.4490642806632</v>
+        <v>201.74490642806632</v>
       </c>
       <c r="B364" t="n">
         <v>198.4</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>669.3718922254419</v>
+        <v>201.9371892225442</v>
       </c>
       <c r="B365" t="n">
         <v>197.60000000000002</v>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>671.2962051516382</v>
+        <v>202.12962051516382</v>
       </c>
       <c r="B366" t="n">
         <v>196.8</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>673.2220297412152</v>
+        <v>202.32220297412152</v>
       </c>
       <c r="B367" t="n">
         <v>196.0</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>675.1493929956445</v>
+        <v>202.51493929956445</v>
       </c>
       <c r="B368" t="n">
         <v>195.20000000000002</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>677.0783222415196</v>
+        <v>202.70783222415196</v>
       </c>
       <c r="B369" t="n">
         <v>194.4</v>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>679.0088451363005</v>
+        <v>202.90088451363005</v>
       </c>
       <c r="B370" t="n">
         <v>193.60000000000002</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>680.9409896742108</v>
+        <v>203.09409896742108</v>
       </c>
       <c r="B371" t="n">
         <v>192.8</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>682.8747841922751</v>
+        <v>203.2874784192275</v>
       </c>
       <c r="B372" t="n">
         <v>192.0</v>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>684.8102573765061</v>
+        <v>203.4810257376506</v>
       </c>
       <c r="B373" t="n">
         <v>191.20000000000002</v>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>686.7474382682548</v>
+        <v>203.67474382682548</v>
       </c>
       <c r="B374" t="n">
         <v>190.4</v>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>688.6863562707106</v>
+        <v>203.86863562707106</v>
       </c>
       <c r="B375" t="n">
         <v>189.60000000000002</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>690.6270411555732</v>
+        <v>204.06270411555732</v>
       </c>
       <c r="B376" t="n">
         <v>188.8</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>692.5695230698898</v>
+        <v>204.25695230698898</v>
       </c>
       <c r="B377" t="n">
         <v>188.0</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>694.5138325430679</v>
+        <v>204.4513832543068</v>
       </c>
       <c r="B378" t="n">
         <v>187.20000000000002</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>696.4600004940684</v>
+        <v>204.64600004940684</v>
       </c>
       <c r="B379" t="n">
         <v>186.4</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>698.4080582387821</v>
+        <v>204.8408058238782</v>
       </c>
       <c r="B380" t="n">
         <v>185.60000000000002</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>700.3580374975991</v>
+        <v>205.0358037497599</v>
       </c>
       <c r="B381" t="n">
         <v>184.8</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>702.3099704031716</v>
+        <v>205.23099704031716</v>
       </c>
       <c r="B382" t="n">
         <v>184.0</v>
@@ -3126,7 +3126,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>704.2638895083797</v>
+        <v>205.42638895083797</v>
       </c>
       <c r="B383" t="n">
         <v>183.20000000000002</v>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>706.2198277945129</v>
+        <v>205.6219827794513</v>
       </c>
       <c r="B384" t="n">
         <v>182.4</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>708.1778186796538</v>
+        <v>205.81778186796538</v>
       </c>
       <c r="B385" t="n">
         <v>181.60000000000002</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>710.137896027295</v>
+        <v>206.0137896027295</v>
       </c>
       <c r="B386" t="n">
         <v>180.8</v>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>712.1000941551813</v>
+        <v>206.21000941551813</v>
       </c>
       <c r="B387" t="n">
         <v>180.0</v>
@@ -3166,7 +3166,7 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>714.0644478443863</v>
+        <v>206.40644478443863</v>
       </c>
       <c r="B388" t="n">
         <v>179.20000000000002</v>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>716.0309923486329</v>
+        <v>206.6030992348633</v>
       </c>
       <c r="B389" t="n">
         <v>178.4</v>
@@ -3182,7 +3182,7 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>718.8643693577086</v>
+        <v>206.88643693577086</v>
       </c>
       <c r="B390" t="n">
         <v>177.60000000000002</v>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>716.8910287932033</v>
+        <v>206.68910287932033</v>
       </c>
       <c r="B391" t="n">
         <v>176.8</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>714.9200468552891</v>
+        <v>206.4920046855289</v>
       </c>
       <c r="B392" t="n">
         <v>176.0</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>712.9513865963588</v>
+        <v>206.29513865963588</v>
       </c>
       <c r="B393" t="n">
         <v>175.20000000000002</v>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>710.9850115817579</v>
+        <v>206.0985011581758</v>
       </c>
       <c r="B394" t="n">
         <v>174.4</v>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>709.0208858794392</v>
+        <v>205.90208858794392</v>
       </c>
       <c r="B395" t="n">
         <v>173.60000000000002</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>707.0589740498889</v>
+        <v>205.7058974049889</v>
       </c>
       <c r="B396" t="n">
         <v>172.8</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>705.0992411363188</v>
+        <v>205.50992411363188</v>
       </c>
       <c r="B397" t="n">
         <v>172.0</v>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>703.1416526551266</v>
+        <v>205.31416526551266</v>
       </c>
       <c r="B398" t="n">
         <v>171.20000000000002</v>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>701.1861745865923</v>
+        <v>205.11861745865923</v>
       </c>
       <c r="B399" t="n">
         <v>170.4</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>699.2327733658311</v>
+        <v>204.9232773365831</v>
       </c>
       <c r="B400" t="n">
         <v>169.60000000000002</v>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>697.2814158739789</v>
+        <v>204.7281415873979</v>
       </c>
       <c r="B401" t="n">
         <v>168.8</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>695.3320694295991</v>
+        <v>204.5332069429599</v>
       </c>
       <c r="B402" t="n">
         <v>168.0</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>693.3847017803254</v>
+        <v>204.33847017803254</v>
       </c>
       <c r="B403" t="n">
         <v>167.20000000000002</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>691.4392810946998</v>
+        <v>204.14392810946998</v>
       </c>
       <c r="B404" t="n">
         <v>166.4</v>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>689.4957759542376</v>
+        <v>203.94957759542376</v>
       </c>
       <c r="B405" t="n">
         <v>165.60000000000002</v>
@@ -3310,7 +3310,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>687.5541553456827</v>
+        <v>203.75541553456827</v>
       </c>
       <c r="B406" t="n">
         <v>164.8</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>685.6143886534653</v>
+        <v>203.56143886534653</v>
       </c>
       <c r="B407" t="n">
         <v>164.0</v>
@@ -3326,7 +3326,7 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>683.6764456523474</v>
+        <v>203.36764456523474</v>
       </c>
       <c r="B408" t="n">
         <v>163.20000000000002</v>
@@ -3334,7 +3334,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>681.7402965002475</v>
+        <v>203.17402965002475</v>
       </c>
       <c r="B409" t="n">
         <v>162.4</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>679.8059117312573</v>
+        <v>202.98059117312573</v>
       </c>
       <c r="B410" t="n">
         <v>161.60000000000002</v>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>677.8732622488218</v>
+        <v>202.78732622488218</v>
       </c>
       <c r="B411" t="n">
         <v>160.8</v>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>675.9423193190901</v>
+        <v>202.594231931909</v>
       </c>
       <c r="B412" t="n">
         <v>160.0</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>674.0130545644337</v>
+        <v>202.40130545644337</v>
       </c>
       <c r="B413" t="n">
         <v>159.20000000000002</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>672.0854399571215</v>
+        <v>202.20854399571215</v>
       </c>
       <c r="B414" t="n">
         <v>158.4</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>670.1594478131511</v>
+        <v>202.0159447813151</v>
       </c>
       <c r="B415" t="n">
         <v>157.60000000000002</v>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>668.2350507862304</v>
+        <v>201.82350507862304</v>
       </c>
       <c r="B416" t="n">
         <v>156.8</v>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>666.3122218619014</v>
+        <v>201.63122218619014</v>
       </c>
       <c r="B417" t="n">
         <v>156.0</v>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>664.3909343518146</v>
+        <v>201.43909343518146</v>
       </c>
       <c r="B418" t="n">
         <v>155.20000000000002</v>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>662.4711618881338</v>
+        <v>201.24711618881338</v>
       </c>
       <c r="B419" t="n">
         <v>154.4</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>660.5528784180791</v>
+        <v>201.0552878418079</v>
       </c>
       <c r="B420" t="n">
         <v>153.60000000000002</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>658.6360581985969</v>
+        <v>200.86360581985969</v>
       </c>
       <c r="B421" t="n">
         <v>152.8</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>656.7206757911686</v>
+        <v>200.67206757911686</v>
       </c>
       <c r="B422" t="n">
         <v>152.0</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>654.80670605672</v>
+        <v>200.480670605672</v>
       </c>
       <c r="B423" t="n">
         <v>151.20000000000002</v>
@@ -3454,7 +3454,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>652.8941241506772</v>
+        <v>200.28941241506772</v>
       </c>
       <c r="B424" t="n">
         <v>150.4</v>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>650.9829055181228</v>
+        <v>200.09829055181228</v>
       </c>
       <c r="B425" t="n">
         <v>149.6</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>649.0730258890699</v>
+        <v>199.907302588907</v>
       </c>
       <c r="B426" t="n">
         <v>148.8</v>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>647.1644612738493</v>
+        <v>199.71644612738493</v>
       </c>
       <c r="B427" t="n">
         <v>148.0</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>645.2571879586031</v>
+        <v>199.5257187958603</v>
       </c>
       <c r="B428" t="n">
         <v>147.20000000000002</v>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>643.3511825008856</v>
+        <v>199.33511825008856</v>
       </c>
       <c r="B429" t="n">
         <v>146.4</v>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>641.4464217253561</v>
+        <v>199.1446421725356</v>
       </c>
       <c r="B430" t="n">
         <v>145.6</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>639.5428827195929</v>
+        <v>198.95428827195929</v>
       </c>
       <c r="B431" t="n">
         <v>144.8</v>
@@ -3518,7 +3518,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>637.640542829979</v>
+        <v>198.7640542829979</v>
       </c>
       <c r="B432" t="n">
         <v>144.0</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>635.7393796577054</v>
+        <v>198.57393796577054</v>
       </c>
       <c r="B433" t="n">
         <v>143.20000000000002</v>
@@ -3534,7 +3534,7 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>633.8393710548462</v>
+        <v>198.38393710548462</v>
       </c>
       <c r="B434" t="n">
         <v>142.4</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>631.9404951205433</v>
+        <v>198.19404951205433</v>
       </c>
       <c r="B435" t="n">
         <v>141.6</v>
@@ -3550,7 +3550,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>630.0427301972582</v>
+        <v>198.00427301972582</v>
       </c>
       <c r="B436" t="n">
         <v>140.8</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>628.1460548671322</v>
+        <v>197.81460548671322</v>
       </c>
       <c r="B437" t="n">
         <v>140.0</v>
@@ -3566,7 +3566,7 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>626.2504479484073</v>
+        <v>197.62504479484073</v>
       </c>
       <c r="B438" t="n">
         <v>139.20000000000002</v>
@@ -3574,7 +3574,7 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>624.3558884919429</v>
+        <v>197.4355888491943</v>
       </c>
       <c r="B439" t="n">
         <v>138.4</v>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>622.4623557778079</v>
+        <v>197.2462355777808</v>
       </c>
       <c r="B440" t="n">
         <v>137.6</v>
@@ -3590,7 +3590,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>620.5698293119485</v>
+        <v>197.05698293119485</v>
       </c>
       <c r="B441" t="n">
         <v>136.8</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>618.6782888229351</v>
+        <v>196.8678288822935</v>
       </c>
       <c r="B442" t="n">
         <v>136.0</v>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>616.7877142587747</v>
+        <v>196.67877142587747</v>
       </c>
       <c r="B443" t="n">
         <v>135.20000000000002</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>614.8980857838069</v>
+        <v>196.4898085783807</v>
       </c>
       <c r="B444" t="n">
         <v>134.4</v>
@@ -3622,7 +3622,7 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>613.4073582821009</v>
+        <v>196.3407358282101</v>
       </c>
       <c r="B445" t="n">
         <v>133.6</v>
@@ -3630,7 +3630,7 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>611.5196345103487</v>
+        <v>196.15196345103487</v>
       </c>
       <c r="B446" t="n">
         <v>132.8</v>
@@ -3638,7 +3638,7 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>609.6328153509785</v>
+        <v>195.96328153509785</v>
       </c>
       <c r="B447" t="n">
         <v>132.0</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>608.1490633474777</v>
+        <v>195.81490633474777</v>
       </c>
       <c r="B448" t="n">
         <v>131.20000000000002</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>606.2641099207684</v>
+        <v>195.62641099207684</v>
       </c>
       <c r="B449" t="n">
         <v>130.4</v>
@@ -3662,7 +3662,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>604.7863803848878</v>
+        <v>195.47863803848878</v>
       </c>
       <c r="B450" t="n">
         <v>129.6</v>
@@ -3670,7 +3670,7 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>602.9032766619639</v>
+        <v>195.2903276661964</v>
       </c>
       <c r="B451" t="n">
         <v>128.8</v>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>601.431595582614</v>
+        <v>195.1431595582614</v>
       </c>
       <c r="B452" t="n">
         <v>128.0</v>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>599.9649921096926</v>
+        <v>194.99649921096926</v>
       </c>
       <c r="B453" t="n">
         <v>127.2</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>600.3835867492847</v>
+        <v>195.03835867492847</v>
       </c>
       <c r="B454" t="n">
         <v>126.4</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>598.926167680977</v>
+        <v>194.8926167680977</v>
       </c>
       <c r="B455" t="n">
         <v>125.60000000000001</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>599.3527887881203</v>
+        <v>194.93527887881203</v>
       </c>
       <c r="B456" t="n">
         <v>124.80000000000001</v>
@@ -3718,7 +3718,7 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>599.7833503399113</v>
+        <v>194.97833503399113</v>
       </c>
       <c r="B457" t="n">
         <v>124.0</v>
@@ -3726,7 +3726,7 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>600.2178590447255</v>
+        <v>195.02178590447255</v>
       </c>
       <c r="B458" t="n">
         <v>123.2</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>600.6563217676774</v>
+        <v>195.06563217676774</v>
       </c>
       <c r="B459" t="n">
         <v>122.4</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>601.0987455326631</v>
+        <v>195.1098745532663</v>
       </c>
       <c r="B460" t="n">
         <v>121.60000000000001</v>
@@ -3750,7 +3750,7 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>601.5451375244322</v>
+        <v>195.15451375244322</v>
       </c>
       <c r="B461" t="n">
         <v>120.80000000000001</v>
@@ -3758,7 +3758,7 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>601.9955050907049</v>
+        <v>195.1995505090705</v>
       </c>
       <c r="B462" t="n">
         <v>120.0</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>602.4498557443218</v>
+        <v>195.24498557443218</v>
       </c>
       <c r="B463" t="n">
         <v>119.2</v>
@@ -3774,7 +3774,7 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>602.9081971654398</v>
+        <v>195.29081971654398</v>
       </c>
       <c r="B464" t="n">
         <v>118.4</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>605.2493814426674</v>
+        <v>195.52493814426674</v>
       </c>
       <c r="B465" t="n">
         <v>117.60000000000001</v>
@@ -3790,7 +3790,7 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>605.7156668315372</v>
+        <v>195.57156668315372</v>
       </c>
       <c r="B466" t="n">
         <v>116.80000000000001</v>
@@ -3798,7 +3798,7 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>608.0657874782821</v>
+        <v>195.8065787478282</v>
       </c>
       <c r="B467" t="n">
         <v>116.0</v>
@@ -3806,7 +3806,7 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>610.4210083037492</v>
+        <v>196.04210083037492</v>
       </c>
       <c r="B468" t="n">
         <v>115.2</v>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>612.3030476432785</v>
+        <v>196.23030476432785</v>
       </c>
       <c r="B469" t="n">
         <v>114.4</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>614.6646742830694</v>
+        <v>196.46646742830694</v>
       </c>
       <c r="B470" t="n">
         <v>113.60000000000001</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>616.5491023707972</v>
+        <v>196.65491023707972</v>
       </c>
       <c r="B471" t="n">
         <v>112.80000000000001</v>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>618.9174188264633</v>
+        <v>196.89174188264633</v>
       </c>
       <c r="B472" t="n">
         <v>112.0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>620.8043997700332</v>
+        <v>197.08043997700332</v>
       </c>
       <c r="B473" t="n">
         <v>111.2</v>
@@ -3854,7 +3854,7 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>622.6926548690278</v>
+        <v>197.26926548690278</v>
       </c>
       <c r="B474" t="n">
         <v>110.4</v>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>625.0693985996321</v>
+        <v>197.5069398599632</v>
       </c>
       <c r="B475" t="n">
         <v>109.60000000000001</v>
@@ -3870,7 +3870,7 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>626.9604359127447</v>
+        <v>197.69604359127447</v>
       </c>
       <c r="B476" t="n">
         <v>108.80000000000001</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>628.8528305049601</v>
+        <v>197.885283050496</v>
       </c>
       <c r="B477" t="n">
         <v>108.0</v>
@@ -3886,7 +3886,7 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>630.7466044249475</v>
+        <v>198.07466044249475</v>
       </c>
       <c r="B478" t="n">
         <v>107.2</v>
@@ -3894,7 +3894,7 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>632.6417799910422</v>
+        <v>198.26417799910422</v>
       </c>
       <c r="B479" t="n">
         <v>106.4</v>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>634.5383797954759</v>
+        <v>198.4538379795476</v>
       </c>
       <c r="B480" t="n">
         <v>105.60000000000001</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>636.4364267087103</v>
+        <v>198.64364267087103</v>
       </c>
       <c r="B481" t="n">
         <v>104.80000000000001</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>638.3359438838767</v>
+        <v>198.83359438838767</v>
       </c>
       <c r="B482" t="n">
         <v>104.0</v>
@@ -3926,7 +3926,7 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>640.2369547613148</v>
+        <v>199.02369547613148</v>
       </c>
       <c r="B483" t="n">
         <v>103.2</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>642.1394830732311</v>
+        <v>199.2139483073231</v>
       </c>
       <c r="B484" t="n">
         <v>102.4</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>644.0435528484602</v>
+        <v>199.40435528484602</v>
       </c>
       <c r="B485" t="n">
         <v>101.60000000000001</v>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>645.9491884173531</v>
+        <v>199.5949188417353</v>
       </c>
       <c r="B486" t="n">
         <v>100.80000000000001</v>
@@ -3958,7 +3958,7 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>647.8564144167655</v>
+        <v>199.78564144167655</v>
       </c>
       <c r="B487" t="n">
         <v>100.0</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>649.765255795192</v>
+        <v>199.9765255795192</v>
       </c>
       <c r="B488" t="n">
         <v>99.2</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>651.6757378180051</v>
+        <v>200.1675737818005</v>
       </c>
       <c r="B489" t="n">
         <v>98.4</v>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>653.5878860728366</v>
+        <v>200.35878860728366</v>
       </c>
       <c r="B490" t="n">
         <v>97.60000000000001</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>655.5017264750802</v>
+        <v>200.55017264750802</v>
       </c>
       <c r="B491" t="n">
         <v>96.80000000000001</v>
@@ -3998,7 +3998,7 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>657.4172852735427</v>
+        <v>200.74172852735427</v>
       </c>
       <c r="B492" t="n">
         <v>96.0</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>659.3345890562284</v>
+        <v>200.93345890562284</v>
       </c>
       <c r="B493" t="n">
         <v>95.2</v>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>661.2536647562666</v>
+        <v>201.12536647562666</v>
       </c>
       <c r="B494" t="n">
         <v>94.4</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>663.1745396579902</v>
+        <v>201.31745396579902</v>
       </c>
       <c r="B495" t="n">
         <v>93.60000000000001</v>
@@ -4030,7 +4030,7 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>665.097241403173</v>
+        <v>201.5097241403173</v>
       </c>
       <c r="B496" t="n">
         <v>92.80000000000001</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>667.0217979974063</v>
+        <v>201.70217979974063</v>
       </c>
       <c r="B497" t="n">
         <v>92.0</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>668.9482378166616</v>
+        <v>201.89482378166616</v>
       </c>
       <c r="B498" t="n">
         <v>91.2</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>670.8765896140017</v>
+        <v>202.08765896140017</v>
       </c>
       <c r="B499" t="n">
         <v>90.4</v>
@@ -4062,7 +4062,7 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>672.8068825264688</v>
+        <v>202.28068825264688</v>
       </c>
       <c r="B500" t="n">
         <v>89.60000000000001</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>674.7391460821552</v>
+        <v>202.47391460821552</v>
       </c>
       <c r="B501" t="n">
         <v>88.80000000000001</v>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>676.6734102074491</v>
+        <v>202.6673410207449</v>
       </c>
       <c r="B502" t="n">
         <v>88.0</v>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>678.6097052344661</v>
+        <v>202.8609705234466</v>
       </c>
       <c r="B503" t="n">
         <v>87.2</v>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>680.5480619086882</v>
+        <v>203.05480619086882</v>
       </c>
       <c r="B504" t="n">
         <v>86.4</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>682.4885113967838</v>
+        <v>203.24885113967838</v>
       </c>
       <c r="B505" t="n">
         <v>85.60000000000001</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>684.4310852946495</v>
+        <v>203.44310852946495</v>
       </c>
       <c r="B506" t="n">
         <v>84.80000000000001</v>
@@ -4118,7 +4118,7 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>686.3758156356499</v>
+        <v>203.637581563565</v>
       </c>
       <c r="B507" t="n">
         <v>84.0</v>
@@ -4126,7 +4126,7 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>688.3227348990908</v>
+        <v>203.83227348990908</v>
       </c>
       <c r="B508" t="n">
         <v>83.2</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>690.2718760189003</v>
+        <v>204.02718760189003</v>
       </c>
       <c r="B509" t="n">
         <v>82.4</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>692.2232723925646</v>
+        <v>204.22232723925646</v>
       </c>
       <c r="B510" t="n">
         <v>81.60000000000001</v>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>694.1769578902807</v>
+        <v>204.41769578902807</v>
       </c>
       <c r="B511" t="n">
         <v>80.80000000000001</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>696.1329668643725</v>
+        <v>204.61329668643725</v>
       </c>
       <c r="B512" t="n">
         <v>80.0</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>698.091334158961</v>
+        <v>204.8091334158961</v>
       </c>
       <c r="B513" t="n">
         <v>79.2</v>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>700.0520951198905</v>
+        <v>205.00520951198905</v>
       </c>
       <c r="B514" t="n">
         <v>78.4</v>
@@ -4182,7 +4182,7 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>702.0152856049395</v>
+        <v>205.20152856049395</v>
       </c>
       <c r="B515" t="n">
         <v>77.60000000000001</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>703.9809419942969</v>
+        <v>205.3980941994297</v>
       </c>
       <c r="B516" t="n">
         <v>76.80000000000001</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>705.9491012013507</v>
+        <v>205.59491012013507</v>
       </c>
       <c r="B517" t="n">
         <v>76.0</v>
@@ -4206,7 +4206,7 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>707.9198006837555</v>
+        <v>205.79198006837555</v>
       </c>
       <c r="B518" t="n">
         <v>75.2</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>709.8930784548298</v>
+        <v>205.98930784548298</v>
       </c>
       <c r="B519" t="n">
         <v>74.4</v>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>711.868973095261</v>
+        <v>206.1868973095261</v>
       </c>
       <c r="B520" t="n">
         <v>73.60000000000001</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>713.8475237651465</v>
+        <v>206.38475237651465</v>
       </c>
       <c r="B521" t="n">
         <v>72.8</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>715.8287702163824</v>
+        <v>206.58287702163824</v>
       </c>
       <c r="B522" t="n">
         <v>72.0</v>
@@ -4246,7 +4246,7 @@
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>717.8127528054034</v>
+        <v>206.78127528054034</v>
       </c>
       <c r="B523" t="n">
         <v>71.2</v>
@@ -4254,7 +4254,7 @@
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>719.7995125062931</v>
+        <v>206.9799512506293</v>
       </c>
       <c r="B524" t="n">
         <v>70.4</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>721.7890909242686</v>
+        <v>207.17890909242686</v>
       </c>
       <c r="B525" t="n">
         <v>69.60000000000001</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>723.7815303095681</v>
+        <v>207.3781530309568</v>
       </c>
       <c r="B526" t="n">
         <v>68.8</v>
@@ -4278,7 +4278,7 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>725.7768735717389</v>
+        <v>207.5776873571739</v>
       </c>
       <c r="B527" t="n">
         <v>68.0</v>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>727.7751642943497</v>
+        <v>207.77751642943497</v>
       </c>
       <c r="B528" t="n">
         <v>67.2</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>729.7764467501423</v>
+        <v>207.97764467501423</v>
       </c>
       <c r="B529" t="n">
         <v>66.4</v>
@@ -4302,7 +4302,7 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>609.748726683556</v>
+        <v>195.9748726683556</v>
       </c>
       <c r="B530" t="n">
         <v>65.60000000000001</v>
@@ -4310,7 +4310,7 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>610.2679722191147</v>
+        <v>196.02679722191147</v>
       </c>
       <c r="B531" t="n">
         <v>64.8</v>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>610.7913561181289</v>
+        <v>196.0791356118129</v>
       </c>
       <c r="B532" t="n">
         <v>64.0</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>611.3188892840594</v>
+        <v>196.13188892840594</v>
       </c>
       <c r="B533" t="n">
         <v>63.2</v>
@@ -4334,7 +4334,7 @@
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>611.850582835167</v>
+        <v>196.1850582835167</v>
       </c>
       <c r="B534" t="n">
         <v>62.400000000000006</v>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>612.3864481076657</v>
+        <v>196.23864481076657</v>
       </c>
       <c r="B535" t="n">
         <v>61.6</v>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>612.9264966589653</v>
+        <v>196.29264966589653</v>
       </c>
       <c r="B536" t="n">
         <v>60.800000000000004</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>613.4707402709518</v>
+        <v>196.34707402709518</v>
       </c>
       <c r="B537" t="n">
         <v>60.0</v>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>614.0191909533655</v>
+        <v>196.40191909533655</v>
       </c>
       <c r="B538" t="n">
         <v>59.2</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>614.571860947226</v>
+        <v>196.4571860947226</v>
       </c>
       <c r="B539" t="n">
         <v>58.400000000000006</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>615.1287627283409</v>
+        <v>196.5128762728341</v>
       </c>
       <c r="B540" t="n">
         <v>57.6</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>615.6899090108868</v>
+        <v>196.56899090108868</v>
       </c>
       <c r="B541" t="n">
         <v>56.800000000000004</v>
@@ -4398,7 +4398,7 @@
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>616.255312751066</v>
+        <v>196.6255312751066</v>
       </c>
       <c r="B542" t="n">
         <v>56.0</v>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>616.8249871508402</v>
+        <v>196.68249871508402</v>
       </c>
       <c r="B543" t="n">
         <v>55.2</v>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>617.3989456617494</v>
+        <v>196.73989456617494</v>
       </c>
       <c r="B544" t="n">
         <v>54.400000000000006</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>617.9772019888054</v>
+        <v>196.79772019888054</v>
       </c>
       <c r="B545" t="n">
         <v>53.6</v>
@@ -4430,7 +4430,7 @@
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>618.5597700944709</v>
+        <v>196.8559770094471</v>
       </c>
       <c r="B546" t="n">
         <v>52.800000000000004</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>619.1466642027365</v>
+        <v>196.91466642027365</v>
       </c>
       <c r="B547" t="n">
         <v>52.0</v>
@@ -4446,7 +4446,7 @@
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>619.7378988032722</v>
+        <v>196.97378988032722</v>
       </c>
       <c r="B548" t="n">
         <v>51.2</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>621.6198608329671</v>
+        <v>197.1619860832967</v>
       </c>
       <c r="B549" t="n">
         <v>50.400000000000006</v>
@@ -4462,7 +4462,7 @@
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>623.5034521547249</v>
+        <v>197.3503452154725</v>
       </c>
       <c r="B550" t="n">
         <v>49.6</v>
@@ -4470,7 +4470,7 @@
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>625.3886954199322</v>
+        <v>197.53886954199322</v>
       </c>
       <c r="B551" t="n">
         <v>48.800000000000004</v>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>627.275613579958</v>
+        <v>197.7275613579958</v>
       </c>
       <c r="B552" t="n">
         <v>48.0</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>629.1642298910256</v>
+        <v>197.91642298910256</v>
       </c>
       <c r="B553" t="n">
         <v>47.2</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>631.0545679191813</v>
+        <v>198.10545679191813</v>
       </c>
       <c r="B554" t="n">
         <v>46.400000000000006</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>632.9466515454016</v>
+        <v>198.29466515454016</v>
       </c>
       <c r="B555" t="n">
         <v>45.6</v>
@@ -4510,7 +4510,7 @@
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>634.8405049708111</v>
+        <v>198.4840504970811</v>
       </c>
       <c r="B556" t="n">
         <v>44.800000000000004</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>636.7361527220419</v>
+        <v>198.6736152722042</v>
       </c>
       <c r="B557" t="n">
         <v>44.0</v>
@@ -4526,7 +4526,7 @@
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>638.6336196567174</v>
+        <v>198.86336196567174</v>
       </c>
       <c r="B558" t="n">
         <v>43.2</v>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>640.532930969074</v>
+        <v>199.0532930969074</v>
       </c>
       <c r="B559" t="n">
         <v>42.400000000000006</v>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>642.4341121957207</v>
+        <v>199.24341121957207</v>
       </c>
       <c r="B560" t="n">
         <v>41.6</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>644.3371892215458</v>
+        <v>199.43371892215458</v>
       </c>
       <c r="B561" t="n">
         <v>40.800000000000004</v>
@@ -4558,7 +4558,7 @@
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>646.2421882857706</v>
+        <v>199.62421882857706</v>
       </c>
       <c r="B562" t="n">
         <v>40.0</v>
@@ -4566,7 +4566,7 @@
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>648.1491359881562</v>
+        <v>199.81491359881562</v>
       </c>
       <c r="B563" t="n">
         <v>39.2</v>
@@ -4574,7 +4574,7 @@
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>650.0580592953617</v>
+        <v>200.00580592953617</v>
       </c>
       <c r="B564" t="n">
         <v>38.400000000000006</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>651.9689855474741</v>
+        <v>200.1968985547474</v>
       </c>
       <c r="B565" t="n">
         <v>37.6</v>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>653.8819424646954</v>
+        <v>200.38819424646954</v>
       </c>
       <c r="B566" t="n">
         <v>36.800000000000004</v>
@@ -4598,7 +4598,7 @@
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>655.7969581542034</v>
+        <v>200.57969581542034</v>
       </c>
       <c r="B567" t="n">
         <v>36.0</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>657.7140611171916</v>
+        <v>200.77140611171916</v>
       </c>
       <c r="B568" t="n">
         <v>35.2</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>659.6332802560926</v>
+        <v>200.96332802560926</v>
       </c>
       <c r="B569" t="n">
         <v>34.4</v>
@@ -4622,7 +4622,7 @@
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>661.5546448819805</v>
+        <v>201.15546448819805</v>
       </c>
       <c r="B570" t="n">
         <v>33.6</v>
@@ -4630,7 +4630,7 @@
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>663.4781847221734</v>
+        <v>201.34781847221734</v>
       </c>
       <c r="B571" t="n">
         <v>32.800000000000004</v>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>665.4039299280345</v>
+        <v>201.54039299280345</v>
       </c>
       <c r="B572" t="n">
         <v>32.0</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>667.3319110829749</v>
+        <v>201.7331911082975</v>
       </c>
       <c r="B573" t="n">
         <v>31.200000000000003</v>
@@ -4654,7 +4654,7 @@
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>669.2621592106747</v>
+        <v>201.92621592106747</v>
       </c>
       <c r="B574" t="n">
         <v>30.400000000000002</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>671.1947057835135</v>
+        <v>202.11947057835135</v>
       </c>
       <c r="B575" t="n">
         <v>29.6</v>
@@ -4670,7 +4670,7 @@
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>673.1295827312329</v>
+        <v>202.3129582731233</v>
       </c>
       <c r="B576" t="n">
         <v>28.8</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>675.0668224498276</v>
+        <v>202.50668224498276</v>
       </c>
       <c r="B577" t="n">
         <v>28.0</v>
@@ -4686,7 +4686,7 @@
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>677.0064578106809</v>
+        <v>202.7006457810681</v>
       </c>
       <c r="B578" t="n">
         <v>27.200000000000003</v>
@@ -4694,7 +4694,7 @@
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>678.9485221699448</v>
+        <v>202.89485221699448</v>
       </c>
       <c r="B579" t="n">
         <v>26.400000000000002</v>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>680.8930493781702</v>
+        <v>203.08930493781702</v>
       </c>
       <c r="B580" t="n">
         <v>25.6</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>682.8400737902138</v>
+        <v>203.28400737902138</v>
       </c>
       <c r="B581" t="n">
         <v>24.8</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>684.7896302754066</v>
+        <v>203.47896302754066</v>
       </c>
       <c r="B582" t="n">
         <v>24.0</v>
@@ -4726,7 +4726,7 @@
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>686.7417542280054</v>
+        <v>203.67417542280054</v>
       </c>
       <c r="B583" t="n">
         <v>23.200000000000003</v>
@@ -4734,7 +4734,7 @@
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>688.6964815779424</v>
+        <v>203.86964815779424</v>
       </c>
       <c r="B584" t="n">
         <v>22.400000000000002</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>690.6538488018651</v>
+        <v>204.0653848801865</v>
       </c>
       <c r="B585" t="n">
         <v>21.6</v>
@@ -4750,7 +4750,7 @@
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>692.6138929344944</v>
+        <v>204.26138929344944</v>
       </c>
       <c r="B586" t="n">
         <v>20.8</v>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>694.576651580303</v>
+        <v>204.4576651580303</v>
       </c>
       <c r="B587" t="n">
         <v>20.0</v>
@@ -4766,7 +4766,7 @@
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>696.5421629255195</v>
+        <v>204.65421629255195</v>
       </c>
       <c r="B588" t="n">
         <v>19.200000000000003</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>698.5104657504843</v>
+        <v>204.85104657504843</v>
       </c>
       <c r="B589" t="n">
         <v>18.400000000000002</v>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>700.4815994423569</v>
+        <v>205.0481599442357</v>
       </c>
       <c r="B590" t="n">
         <v>17.6</v>
@@ -4790,7 +4790,7 @@
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>702.4556040081916</v>
+        <v>205.24556040081916</v>
       </c>
       <c r="B591" t="n">
         <v>16.8</v>
@@ -4798,7 +4798,7 @@
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>704.4325200883867</v>
+        <v>205.44325200883867</v>
       </c>
       <c r="B592" t="n">
         <v>16.0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>706.4123889705445</v>
+        <v>205.64123889705445</v>
       </c>
       <c r="B593" t="n">
         <v>15.200000000000001</v>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>708.3952526037206</v>
+        <v>205.83952526037206</v>
       </c>
       <c r="B594" t="n">
         <v>14.4</v>
@@ -4822,7 +4822,7 @@
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>710.3811536131047</v>
+        <v>206.03811536131047</v>
       </c>
       <c r="B595" t="n">
         <v>13.600000000000001</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>712.3701353151387</v>
+        <v>206.23701353151387</v>
       </c>
       <c r="B596" t="n">
         <v>12.8</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>714.3622417330852</v>
+        <v>206.43622417330852</v>
       </c>
       <c r="B597" t="n">
         <v>12.0</v>
@@ -4846,7 +4846,7 @@
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>716.3575176130678</v>
+        <v>206.63575176130678</v>
       </c>
       <c r="B598" t="n">
         <v>11.200000000000001</v>
@@ -4854,7 +4854,7 @@
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>718.3560084405963</v>
+        <v>206.83560084405963</v>
       </c>
       <c r="B599" t="n">
         <v>10.4</v>
@@ -4862,7 +4862,7 @@
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>720.357760457598</v>
+        <v>207.0357760457598</v>
       </c>
       <c r="B600" t="n">
         <v>9.600000000000001</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>722.3628206799731</v>
+        <v>207.2362820679973</v>
       </c>
       <c r="B601" t="n">
         <v>8.8</v>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>724.371236915689</v>
+        <v>207.4371236915689</v>
       </c>
       <c r="B602" t="n">
         <v>8.0</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>726.3830577834443</v>
+        <v>207.63830577834443</v>
       </c>
       <c r="B603" t="n">
         <v>7.2</v>
@@ -4894,7 +4894,7 @@
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>728.3983327319106</v>
+        <v>207.83983327319106</v>
       </c>
       <c r="B604" t="n">
         <v>6.4</v>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>730.4171120595868</v>
+        <v>208.04171120595868</v>
       </c>
       <c r="B605" t="n">
         <v>5.6000000000000005</v>
@@ -4910,7 +4910,7 @@
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>732.4394469352814</v>
+        <v>208.24394469352814</v>
       </c>
       <c r="B606" t="n">
         <v>4.800000000000001</v>
@@ -4918,7 +4918,7 @@
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>734.4653894192464</v>
+        <v>208.44653894192464</v>
       </c>
       <c r="B607" t="n">
         <v>4.0</v>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>736.4949924849986</v>
+        <v>208.64949924849986</v>
       </c>
       <c r="B608" t="n">
         <v>3.2</v>
@@ -4934,7 +4934,7 @@
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>738.52831004184</v>
+        <v>208.852831004184</v>
       </c>
       <c r="B609" t="n">
         <v>2.4000000000000004</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>740.5653969581169</v>
+        <v>209.0565396958117</v>
       </c>
       <c r="B610" t="n">
         <v>1.6</v>
@@ -4950,7 +4950,7 @@
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>742.6063090852432</v>
+        <v>209.26063090852432</v>
       </c>
       <c r="B611" t="n">
         <v>0.8</v>
@@ -4958,7 +4958,7 @@
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>744.6511032825157</v>
+        <v>209.46511032825157</v>
       </c>
       <c r="B612" t="n">
         <v>0.0</v>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>-484.0360172534875</v>
+        <v>-48.40360172534875</v>
       </c>
       <c r="B613" t="n">
         <v>0.0</v>

--- a/target/classes/mold_output.xlsx
+++ b/target/classes/mold_output.xlsx
@@ -86,7 +86,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-48.40360172534875</v>
+        <v>-71.53443560561686</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -94,7 +94,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-48.43329459172716</v>
+        <v>-71.53299025513212</v>
       </c>
       <c r="B4" t="n">
         <v>0.8</v>
@@ -102,7 +102,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-48.46261354557723</v>
+        <v>-71.53121836785363</v>
       </c>
       <c r="B5" t="n">
         <v>1.6</v>
@@ -110,7 +110,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-48.49155870227062</v>
+        <v>-71.52911960109975</v>
       </c>
       <c r="B6" t="n">
         <v>2.4000000000000004</v>
@@ -118,7 +118,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-48.52013016764528</v>
+        <v>-71.52669361026423</v>
       </c>
       <c r="B7" t="n">
         <v>3.2</v>
@@ -126,7 +126,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-48.5483280381041</v>
+        <v>-71.52394004885315</v>
       </c>
       <c r="B8" t="n">
         <v>4.0</v>
@@ -134,7 +134,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-48.57615240071161</v>
+        <v>-71.52085856852182</v>
       </c>
       <c r="B9" t="n">
         <v>4.800000000000001</v>
@@ -142,7 +142,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-48.60360333329052</v>
+        <v>-71.51744881911188</v>
       </c>
       <c r="B10" t="n">
         <v>5.6000000000000005</v>
@@ -150,7 +150,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-48.63068090451608</v>
+        <v>-71.51371044868904</v>
       </c>
       <c r="B11" t="n">
         <v>6.4</v>
@@ -158,7 +158,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-48.657385174009676</v>
+        <v>-71.50964310357944</v>
       </c>
       <c r="B12" t="n">
         <v>7.2</v>
@@ -166,7 +166,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-48.68371619243163</v>
+        <v>-71.5052464284079</v>
       </c>
       <c r="B13" t="n">
         <v>8.0</v>
@@ -174,7 +174,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-48.709674001572694</v>
+        <v>-71.50052006613453</v>
       </c>
       <c r="B14" t="n">
         <v>8.8</v>
@@ -182,7 +182,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-48.735258634444136</v>
+        <v>-71.49546365809289</v>
       </c>
       <c r="B15" t="n">
         <v>9.600000000000001</v>
@@ -190,7 +190,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-48.760470115367326</v>
+        <v>-71.49007684402699</v>
       </c>
       <c r="B16" t="n">
         <v>10.4</v>
@@ -198,7 +198,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-48.78530846006197</v>
+        <v>-71.48435926212949</v>
       </c>
       <c r="B17" t="n">
         <v>11.200000000000001</v>
@@ -206,7 +206,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-48.80977367573374</v>
+        <v>-71.47831054907897</v>
       </c>
       <c r="B18" t="n">
         <v>12.0</v>
@@ -214,7 +214,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-48.83386576116018</v>
+        <v>-71.4719303400779</v>
       </c>
       <c r="B19" t="n">
         <v>12.8</v>
@@ -222,7 +222,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-48.85758470677666</v>
+        <v>-71.46521826889085</v>
       </c>
       <c r="B20" t="n">
         <v>13.600000000000001</v>
@@ -230,7 +230,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-48.88093049476075</v>
+        <v>-71.45817396788189</v>
       </c>
       <c r="B21" t="n">
         <v>14.4</v>
@@ -238,7 +238,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-48.90390309911564</v>
+        <v>-71.45079706805342</v>
       </c>
       <c r="B22" t="n">
         <v>15.200000000000001</v>
@@ -246,7 +246,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-48.92650248575339</v>
+        <v>-71.44308719908355</v>
       </c>
       <c r="B23" t="n">
         <v>16.0</v>
@@ -254,7 +254,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-48.94872861257653</v>
+        <v>-71.43504398936511</v>
       </c>
       <c r="B24" t="n">
         <v>16.8</v>
@@ -262,7 +262,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-48.97058142955905</v>
+        <v>-71.42666706604359</v>
       </c>
       <c r="B25" t="n">
         <v>17.6</v>
@@ -270,7 +270,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-48.99206087882763</v>
+        <v>-71.41795605505587</v>
       </c>
       <c r="B26" t="n">
         <v>18.400000000000002</v>
@@ -278,7 +278,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-49.013166894739896</v>
+        <v>-71.40891058116844</v>
       </c>
       <c r="B27" t="n">
         <v>19.200000000000003</v>
@@ -286,7 +286,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-49.033899403963915</v>
+        <v>-71.39953026801663</v>
       </c>
       <c r="B28" t="n">
         <v>20.0</v>
@@ -294,7 +294,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-49.05425832555642</v>
+        <v>-71.38981473814286</v>
       </c>
       <c r="B29" t="n">
         <v>20.8</v>
@@ -302,7 +302,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-49.07424357103946</v>
+        <v>-71.37976361303595</v>
       </c>
       <c r="B30" t="n">
         <v>21.6</v>
@@ -310,7 +310,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-49.09385504447761</v>
+        <v>-71.36937651316973</v>
       </c>
       <c r="B31" t="n">
         <v>22.400000000000002</v>
@@ -318,7 +318,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-49.113092642553625</v>
+        <v>-71.35865305804273</v>
       </c>
       <c r="B32" t="n">
         <v>23.200000000000003</v>
@@ -326,7 +326,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-49.13195625464357</v>
+        <v>-71.3475928662167</v>
       </c>
       <c r="B33" t="n">
         <v>24.0</v>
@@ -334,7 +334,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-49.15044576289182</v>
+        <v>-71.33619555535628</v>
       </c>
       <c r="B34" t="n">
         <v>24.8</v>
@@ -342,7 +342,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-49.16856104228464</v>
+        <v>-71.3244607422688</v>
       </c>
       <c r="B35" t="n">
         <v>25.6</v>
@@ -350,7 +350,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-49.18630196072377</v>
+        <v>-71.3123880429431</v>
       </c>
       <c r="B36" t="n">
         <v>26.400000000000002</v>
@@ -358,7 +358,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-49.20366837909927</v>
+        <v>-71.29997707258985</v>
       </c>
       <c r="B37" t="n">
         <v>27.200000000000003</v>
@@ -366,7 +366,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-49.220660151361585</v>
+        <v>-71.28722744568086</v>
       </c>
       <c r="B38" t="n">
         <v>28.0</v>
@@ -374,7 +374,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-49.23727712459305</v>
+        <v>-71.27413877598946</v>
       </c>
       <c r="B39" t="n">
         <v>28.8</v>
@@ -382,7 +382,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-49.253519139079344</v>
+        <v>-71.26071067663</v>
       </c>
       <c r="B40" t="n">
         <v>29.6</v>
@@ -390,7 +390,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-49.269386028379984</v>
+        <v>-71.24694276009848</v>
       </c>
       <c r="B41" t="n">
         <v>30.400000000000002</v>
@@ -398,7 +398,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-49.28487761939817</v>
+        <v>-71.23283463831245</v>
       </c>
       <c r="B42" t="n">
         <v>31.200000000000003</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-49.29999373245033</v>
+        <v>-71.21838592265169</v>
       </c>
       <c r="B43" t="n">
         <v>32.0</v>
@@ -414,7 +414,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-49.31473418133538</v>
+        <v>-71.20359622399843</v>
       </c>
       <c r="B44" t="n">
         <v>32.800000000000004</v>
@@ -422,7 +422,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-49.32909877340364</v>
+        <v>-71.18846515277824</v>
       </c>
       <c r="B45" t="n">
         <v>33.6</v>
@@ -430,7 +430,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-49.34308730962431</v>
+        <v>-71.17299231900043</v>
       </c>
       <c r="B46" t="n">
         <v>34.4</v>
@@ -438,7 +438,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-49.356699584653825</v>
+        <v>-71.1571773322994</v>
       </c>
       <c r="B47" t="n">
         <v>35.2</v>
@@ -446,7 +446,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-49.36993538690288</v>
+        <v>-71.14101980197529</v>
       </c>
       <c r="B48" t="n">
         <v>36.0</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-49.38279449860329</v>
+        <v>-71.12451933703511</v>
       </c>
       <c r="B49" t="n">
         <v>36.800000000000004</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-49.39527669587471</v>
+        <v>-71.10767554623419</v>
       </c>
       <c r="B50" t="n">
         <v>37.6</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-49.40738174879078</v>
+        <v>-71.09048803811731</v>
       </c>
       <c r="B51" t="n">
         <v>38.400000000000006</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-49.41910942144489</v>
+        <v>-71.07295642106052</v>
       </c>
       <c r="B52" t="n">
         <v>39.2</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-49.43045947201517</v>
+        <v>-71.05508030331231</v>
       </c>
       <c r="B53" t="n">
         <v>40.0</v>
@@ -494,7 +494,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-49.44143165283026</v>
+        <v>-71.03685929303583</v>
       </c>
       <c r="B54" t="n">
         <v>40.800000000000004</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-49.45202571043376</v>
+        <v>-71.01829299835035</v>
       </c>
       <c r="B55" t="n">
         <v>41.6</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-49.462241385648554</v>
+        <v>-70.99938102737366</v>
       </c>
       <c r="B56" t="n">
         <v>42.400000000000006</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-49.47207841364133</v>
+        <v>-70.98012298826367</v>
       </c>
       <c r="B57" t="n">
         <v>43.2</v>
@@ -526,7 +526,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-49.48153652398605</v>
+        <v>-72.56581930234825</v>
       </c>
       <c r="B58" t="n">
         <v>44.0</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-49.49061544072782</v>
+        <v>-74.38133688682541</v>
       </c>
       <c r="B59" t="n">
         <v>44.800000000000004</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-49.499314882446015</v>
+        <v>-76.33814156442156</v>
       </c>
       <c r="B60" t="n">
         <v>45.6</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-49.50763456231755</v>
+        <v>-78.07381371402462</v>
       </c>
       <c r="B61" t="n">
         <v>46.400000000000006</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-49.51557418817987</v>
+        <v>-80.0303075527381</v>
       </c>
       <c r="B62" t="n">
         <v>47.2</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-49.52313346259268</v>
+        <v>-80.80726119765342</v>
       </c>
       <c r="B63" t="n">
         <v>48.0</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-49.530312082901844</v>
+        <v>-82.39155195995721</v>
       </c>
       <c r="B64" t="n">
         <v>48.800000000000004</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-49.5371097412999</v>
+        <v>-82.46982650133444</v>
       </c>
       <c r="B65" t="n">
         <v>49.6</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-49.54352612488964</v>
+        <v>-82.51898007153918</v>
       </c>
       <c r="B66" t="n">
         <v>50.400000000000006</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-49.54956091574448</v>
+        <v>-82.53956169953642</v>
       </c>
       <c r="B67" t="n">
         <v>51.2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-49.742286822926985</v>
+        <v>-82.53210513886523</v>
       </c>
       <c r="B68" t="n">
         <v>52.0</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-49.93509244915947</v>
+        <v>-82.51181300870292</v>
       </c>
       <c r="B69" t="n">
         <v>52.800000000000004</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-50.12797940937713</v>
+        <v>-82.51603811037609</v>
       </c>
       <c r="B70" t="n">
         <v>53.6</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-50.32094931153722</v>
+        <v>-82.5199268915976</v>
       </c>
       <c r="B71" t="n">
         <v>54.400000000000006</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-50.51400375669033</v>
+        <v>-82.52347867106198</v>
       </c>
       <c r="B72" t="n">
         <v>55.2</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-50.70714433904868</v>
+        <v>-82.52669276431763</v>
       </c>
       <c r="B73" t="n">
         <v>56.0</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-50.90037264605331</v>
+        <v>-82.52956848380003</v>
       </c>
       <c r="B74" t="n">
         <v>56.800000000000004</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-51.09369025843867</v>
+        <v>-82.53430203582411</v>
       </c>
       <c r="B75" t="n">
         <v>57.6</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-51.287098750296366</v>
+        <v>-82.5361584779767</v>
       </c>
       <c r="B76" t="n">
         <v>58.400000000000006</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-51.4805996891356</v>
+        <v>-82.53767376564664</v>
       </c>
       <c r="B77" t="n">
         <v>59.2</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-51.67419463594297</v>
+        <v>-82.53884719621641</v>
       </c>
       <c r="B78" t="n">
         <v>60.0</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-51.867885145239825</v>
+        <v>-82.5396780641625</v>
       </c>
       <c r="B79" t="n">
         <v>60.800000000000004</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-52.061672765137814</v>
+        <v>-82.5401656610911</v>
       </c>
       <c r="B80" t="n">
         <v>61.6</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-52.25555903739337</v>
+        <v>-82.54030927577384</v>
       </c>
       <c r="B81" t="n">
         <v>62.400000000000006</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-52.44954549745921</v>
+        <v>-82.5401081941848</v>
       </c>
       <c r="B82" t="n">
         <v>63.2</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-52.643633674535124</v>
+        <v>-82.53866907231696</v>
       </c>
       <c r="B83" t="n">
         <v>64.0</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-52.83782509161631</v>
+        <v>-82.53742959032769</v>
       </c>
       <c r="B84" t="n">
         <v>64.8</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-53.03212126554075</v>
+        <v>-82.5358425287211</v>
       </c>
       <c r="B85" t="n">
         <v>65.60000000000001</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-53.118852403808916</v>
+        <v>-82.53390716003832</v>
       </c>
       <c r="B86" t="n">
         <v>66.4</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-53.150371281005505</v>
+        <v>-82.53162275424813</v>
       </c>
       <c r="B87" t="n">
         <v>67.2</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-53.18152676528965</v>
+        <v>-82.5289885787858</v>
       </c>
       <c r="B88" t="n">
         <v>68.0</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-53.21231878444877</v>
+        <v>-82.52600389859197</v>
       </c>
       <c r="B89" t="n">
         <v>68.8</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-53.24274725727349</v>
+        <v>-82.52266797615266</v>
       </c>
       <c r="B90" t="n">
         <v>69.60000000000001</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-53.272812093632325</v>
+        <v>-82.51493944244856</v>
       </c>
       <c r="B91" t="n">
         <v>70.4</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-53.3025131945455</v>
+        <v>-82.51054534424401</v>
       </c>
       <c r="B92" t="n">
         <v>71.2</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-53.331850452258664</v>
+        <v>-82.50579702999684</v>
       </c>
       <c r="B93" t="n">
         <v>72.0</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-53.36082375031444</v>
+        <v>-82.50069375052726</v>
       </c>
       <c r="B94" t="n">
         <v>72.8</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-53.38943296362481</v>
+        <v>-82.49523475444698</v>
       </c>
       <c r="B95" t="n">
         <v>73.60000000000001</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-53.41767795854099</v>
+        <v>-82.48941928820142</v>
       </c>
       <c r="B96" t="n">
         <v>74.4</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-53.445558592924385</v>
+        <v>-82.48324659611245</v>
       </c>
       <c r="B97" t="n">
         <v>75.2</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-53.47307471621508</v>
+        <v>-82.47671592042173</v>
       </c>
       <c r="B98" t="n">
         <v>76.0</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-53.50022616950062</v>
+        <v>-82.46257757706331</v>
       </c>
       <c r="B99" t="n">
         <v>76.80000000000001</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-53.52701278558442</v>
+        <v>-82.45496838387305</v>
       </c>
       <c r="B100" t="n">
         <v>77.60000000000001</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-53.553434389051944</v>
+        <v>-82.44699815612557</v>
       </c>
       <c r="B101" t="n">
         <v>78.4</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-53.579490796338774</v>
+        <v>-82.43866612632507</v>
       </c>
       <c r="B102" t="n">
         <v>79.2</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-53.605181815794595</v>
+        <v>-82.42997152516404</v>
       </c>
       <c r="B103" t="n">
         <v>80.0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-53.63050724775022</v>
+        <v>-82.4209135815695</v>
       </c>
       <c r="B104" t="n">
         <v>80.80000000000001</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-53.65546688458113</v>
+        <v>-82.41149152274971</v>
       </c>
       <c r="B105" t="n">
         <v>81.60000000000001</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-53.680060510772364</v>
+        <v>-82.40170457424145</v>
       </c>
       <c r="B106" t="n">
         <v>82.4</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-53.704287902981605</v>
+        <v>-82.38103290223376</v>
       </c>
       <c r="B107" t="n">
         <v>83.2</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-53.72814883010204</v>
+        <v>-82.37014662188062</v>
       </c>
       <c r="B108" t="n">
         <v>84.0</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-53.751643053325665</v>
+        <v>-82.35889233822854</v>
       </c>
       <c r="B109" t="n">
         <v>84.80000000000001</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-53.77477032620419</v>
+        <v>-82.34726926917966</v>
       </c>
       <c r="B110" t="n">
         <v>85.60000000000001</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-53.79753039471109</v>
+        <v>-82.3352766312569</v>
       </c>
       <c r="B111" t="n">
         <v>86.4</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-53.819922997302456</v>
+        <v>-82.32291363965447</v>
       </c>
       <c r="B112" t="n">
         <v>87.2</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-53.8419478649777</v>
+        <v>-82.31017950828888</v>
       </c>
       <c r="B113" t="n">
         <v>88.0</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-53.86360472133899</v>
+        <v>-82.29707344985007</v>
       </c>
       <c r="B114" t="n">
         <v>88.80000000000001</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-53.88489328265197</v>
+        <v>-82.28359467585346</v>
       </c>
       <c r="B115" t="n">
         <v>89.60000000000001</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-53.90581325790353</v>
+        <v>-82.26974239669181</v>
       </c>
       <c r="B116" t="n">
         <v>90.4</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-53.92636434886174</v>
+        <v>-82.25551582168839</v>
       </c>
       <c r="B117" t="n">
         <v>91.2</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-53.94654625013405</v>
+        <v>-82.24091415915004</v>
       </c>
       <c r="B118" t="n">
         <v>92.0</v>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-53.96635864922487</v>
+        <v>-84.0110179630471</v>
       </c>
       <c r="B119" t="n">
         <v>92.80000000000001</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-53.98580122659337</v>
+        <v>-85.75780040644355</v>
       </c>
       <c r="B120" t="n">
         <v>93.60000000000001</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-54.004873655711606</v>
+        <v>-85.53810518975416</v>
       </c>
       <c r="B121" t="n">
         <v>94.4</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-54.02357560312018</v>
+        <v>-85.31880118593529</v>
       </c>
       <c r="B122" t="n">
         <v>95.2</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-54.0419067284858</v>
+        <v>-85.09988525277373</v>
       </c>
       <c r="B123" t="n">
         <v>96.0</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-54.05986668465761</v>
+        <v>-84.88135426673347</v>
       </c>
       <c r="B124" t="n">
         <v>96.80000000000001</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-54.077455117723076</v>
+        <v>-84.66320512270937</v>
       </c>
       <c r="B125" t="n">
         <v>97.60000000000001</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-54.09467166706341</v>
+        <v>-84.44543473378332</v>
       </c>
       <c r="B126" t="n">
         <v>98.4</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-54.11151596541026</v>
+        <v>-84.22804003098369</v>
       </c>
       <c r="B127" t="n">
         <v>99.2</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-54.12798763889944</v>
+        <v>-83.79436549618299</v>
       </c>
       <c r="B128" t="n">
         <v>100.0</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-54.14408630712734</v>
+        <v>-83.57807961384123</v>
       </c>
       <c r="B129" t="n">
         <v>100.80000000000001</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-54.159811583204714</v>
+        <v>-83.3621573164817</v>
       </c>
       <c r="B130" t="n">
         <v>101.60000000000001</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-54.175163073812286</v>
+        <v>-83.1465956213471</v>
       </c>
       <c r="B131" t="n">
         <v>102.4</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-54.1901403792541</v>
+        <v>-82.93139156223785</v>
       </c>
       <c r="B132" t="n">
         <v>103.2</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-54.20474309351266</v>
+        <v>-82.71654218928916</v>
       </c>
       <c r="B133" t="n">
         <v>104.0</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-54.21897080430222</v>
+        <v>-82.50204456875122</v>
       </c>
       <c r="B134" t="n">
         <v>104.80000000000001</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-54.23282309312333</v>
+        <v>-82.2878957827711</v>
       </c>
       <c r="B135" t="n">
         <v>105.60000000000001</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-54.24629953531593</v>
+        <v>-82.22593661642111</v>
       </c>
       <c r="B136" t="n">
         <v>106.4</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-54.25939970011345</v>
+        <v>-82.21058239993721</v>
       </c>
       <c r="B137" t="n">
         <v>107.2</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-54.27212315069599</v>
+        <v>-82.19485071528038</v>
       </c>
       <c r="B138" t="n">
         <v>108.0</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-54.28446944424354</v>
+        <v>-82.17874076723422</v>
       </c>
       <c r="B139" t="n">
         <v>108.80000000000001</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-54.29643813198973</v>
+        <v>-82.1622517598392</v>
       </c>
       <c r="B140" t="n">
         <v>109.60000000000001</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-54.502272179713714</v>
+        <v>-82.1453828964494</v>
       </c>
       <c r="B141" t="n">
         <v>110.4</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-54.5135892061719</v>
+        <v>-82.12813337978889</v>
       </c>
       <c r="B142" t="n">
         <v>111.2</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-54.52452727404281</v>
+        <v>-82.11050241200866</v>
       </c>
       <c r="B143" t="n">
         <v>112.0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-54.72975290896429</v>
+        <v>-82.0924891947451</v>
       </c>
       <c r="B144" t="n">
         <v>112.80000000000001</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-54.74003816144898</v>
+        <v>-82.07409292917725</v>
       </c>
       <c r="B145" t="n">
         <v>113.60000000000001</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-54.94493641349359</v>
+        <v>-80.762018864205</v>
       </c>
       <c r="B146" t="n">
         <v>114.4</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-54.95456847553618</v>
+        <v>-80.88778028031396</v>
       </c>
       <c r="B147" t="n">
         <v>115.2</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-55.159146646851525</v>
+        <v>-80.98393899026047</v>
       </c>
       <c r="B148" t="n">
         <v>116.0</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-55.363683150672955</v>
+        <v>-81.05101886750418</v>
       </c>
       <c r="B149" t="n">
         <v>116.80000000000001</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-55.559363612810245</v>
+        <v>-81.08953365129577</v>
       </c>
       <c r="B150" t="n">
         <v>117.60000000000001</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-55.76410229896402</v>
+        <v>-81.09998435326588</v>
       </c>
       <c r="B151" t="n">
         <v>118.4</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>-55.96014778277322</v>
+        <v>-81.08285685737965</v>
       </c>
       <c r="B152" t="n">
         <v>119.2</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-56.15632148714542</v>
+        <v>-81.08610707035018</v>
       </c>
       <c r="B153" t="n">
         <v>120.0</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>-56.35262482979459</v>
+        <v>-81.08902198430582</v>
       </c>
       <c r="B154" t="n">
         <v>120.80000000000001</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-56.54905922283805</v>
+        <v>-81.0916009647712</v>
       </c>
       <c r="B155" t="n">
         <v>121.60000000000001</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-56.745626072812456</v>
+        <v>-81.09384337437626</v>
       </c>
       <c r="B156" t="n">
         <v>122.4</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-56.942326780688944</v>
+        <v>-81.09574857289067</v>
       </c>
       <c r="B157" t="n">
         <v>123.2</v>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-57.139162741884945</v>
+        <v>-81.0973159172581</v>
       </c>
       <c r="B158" t="n">
         <v>124.0</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-57.336135346276706</v>
+        <v>-81.09854476163156</v>
       </c>
       <c r="B159" t="n">
         <v>124.80000000000001</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>-57.53324597820853</v>
+        <v>-81.0994344574085</v>
       </c>
       <c r="B160" t="n">
         <v>125.60000000000001</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-57.720327071253934</v>
+        <v>-81.1001937951961</v>
       </c>
       <c r="B161" t="n">
         <v>126.4</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-57.91758528186884</v>
+        <v>-81.10006212654332</v>
       </c>
       <c r="B162" t="n">
         <v>127.2</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>-58.10416556494772</v>
+        <v>-81.09958868803938</v>
       </c>
       <c r="B163" t="n">
         <v>128.0</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-58.290233826494614</v>
+        <v>-81.09877281784065</v>
       </c>
       <c r="B164" t="n">
         <v>128.8</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-58.27851642012823</v>
+        <v>-81.09761385156489</v>
       </c>
       <c r="B165" t="n">
         <v>129.6</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-58.46355148843793</v>
+        <v>-81.09611112232886</v>
       </c>
       <c r="B166" t="n">
         <v>130.4</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-58.4509360865801</v>
+        <v>-81.09426396078521</v>
       </c>
       <c r="B167" t="n">
         <v>131.20000000000002</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-58.634933711501304</v>
+        <v>-81.09207169516105</v>
       </c>
       <c r="B168" t="n">
         <v>132.0</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-58.6214213990726</v>
+        <v>-81.08664915267985</v>
       </c>
       <c r="B169" t="n">
         <v>132.8</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-58.60753120587</v>
+        <v>-81.08341752049353</v>
       </c>
       <c r="B170" t="n">
         <v>133.6</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-58.78996933918111</v>
+        <v>-81.07983807364621</v>
       </c>
       <c r="B171" t="n">
         <v>134.4</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-58.77518471621562</v>
+        <v>-81.07591012881579</v>
       </c>
       <c r="B172" t="n">
         <v>135.20000000000002</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-58.76002418000388</v>
+        <v>-81.07163300048865</v>
       </c>
       <c r="B173" t="n">
         <v>136.0</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-58.74448834604593</v>
+        <v>-81.0670060010001</v>
       </c>
       <c r="B174" t="n">
         <v>136.8</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-58.72857782324624</v>
+        <v>-81.0620284405747</v>
       </c>
       <c r="B175" t="n">
         <v>137.6</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-58.71229321387125</v>
+        <v>-81.05669962736727</v>
       </c>
       <c r="B176" t="n">
         <v>138.4</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-58.695635113506995</v>
+        <v>-81.04498546512525</v>
       </c>
       <c r="B177" t="n">
         <v>139.20000000000002</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-58.67860411101691</v>
+        <v>-81.03859872242518</v>
       </c>
       <c r="B178" t="n">
         <v>140.0</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-58.661200788499826</v>
+        <v>-81.03185793969658</v>
       </c>
       <c r="B179" t="n">
         <v>140.8</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-58.64342572124738</v>
+        <v>-81.02476241537244</v>
       </c>
       <c r="B180" t="n">
         <v>141.6</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-58.62527947770147</v>
+        <v>-81.01731144606907</v>
       </c>
       <c r="B181" t="n">
         <v>142.4</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-58.60676261941265</v>
+        <v>-81.00950432662984</v>
       </c>
       <c r="B182" t="n">
         <v>143.20000000000002</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-58.587875700996904</v>
+        <v>-81.00134035016907</v>
       </c>
       <c r="B183" t="n">
         <v>144.0</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-58.56861927009396</v>
+        <v>-80.99281880811634</v>
       </c>
       <c r="B184" t="n">
         <v>144.8</v>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-58.54899386732404</v>
+        <v>-80.97470018479538</v>
       </c>
       <c r="B185" t="n">
         <v>145.6</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>-58.52900002624585</v>
+        <v>-80.96510167836533</v>
       </c>
       <c r="B186" t="n">
         <v>146.4</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-58.508638273313494</v>
+        <v>-80.95514275611023</v>
       </c>
       <c r="B187" t="n">
         <v>147.20000000000002</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>-58.487909127833916</v>
+        <v>-80.94482270171235</v>
       </c>
       <c r="B188" t="n">
         <v>148.0</v>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-58.466813101923606</v>
+        <v>-80.93414079744264</v>
       </c>
       <c r="B189" t="n">
         <v>148.8</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>-58.44535070046578</v>
+        <v>-80.92309632420785</v>
       </c>
       <c r="B190" t="n">
         <v>149.6</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-58.42352242106739</v>
+        <v>-80.91168856159771</v>
       </c>
       <c r="B191" t="n">
         <v>150.4</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-58.40132875401537</v>
+        <v>-80.89991678793314</v>
       </c>
       <c r="B192" t="n">
         <v>151.20000000000002</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>-58.37877018223307</v>
+        <v>-80.87527831466787</v>
       </c>
       <c r="B193" t="n">
         <v>152.0</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-58.35584718123695</v>
+        <v>-80.86241016579925</v>
       </c>
       <c r="B194" t="n">
         <v>152.8</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-58.332560219092386</v>
+        <v>-80.84917510743855</v>
       </c>
       <c r="B195" t="n">
         <v>153.60000000000002</v>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>-58.30890975636933</v>
+        <v>-80.83557241229269</v>
       </c>
       <c r="B196" t="n">
         <v>154.4</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>-58.28489624609833</v>
+        <v>-80.82160135209432</v>
       </c>
       <c r="B197" t="n">
         <v>155.20000000000002</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-58.26052013372595</v>
+        <v>-80.79255121890793</v>
       </c>
       <c r="B198" t="n">
         <v>156.0</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>-58.235781857069526</v>
+        <v>-80.77747068497538</v>
       </c>
       <c r="B199" t="n">
         <v>156.8</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-58.210681846272536</v>
+        <v>-80.53605564853575</v>
       </c>
       <c r="B200" t="n">
         <v>157.60000000000002</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>-58.18522052375906</v>
+        <v>-80.51974573335255</v>
       </c>
       <c r="B201" t="n">
         <v>158.4</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>-58.15939830418807</v>
+        <v>-80.50306290195624</v>
       </c>
       <c r="B202" t="n">
         <v>159.20000000000002</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>-58.1332155944074</v>
+        <v>-80.27583906318077</v>
       </c>
       <c r="B203" t="n">
         <v>160.0</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>-58.106672793407824</v>
+        <v>-80.25829833761387</v>
       </c>
       <c r="B204" t="n">
         <v>160.8</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>-58.079770292275924</v>
+        <v>-80.01191011078885</v>
       </c>
       <c r="B205" t="n">
         <v>161.60000000000002</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>-58.0525084741478</v>
+        <v>-79.7831600423707</v>
       </c>
       <c r="B206" t="n">
         <v>162.4</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>-58.02488771416114</v>
+        <v>-79.55413634539849</v>
       </c>
       <c r="B207" t="n">
         <v>163.20000000000002</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>-57.9969083794079</v>
+        <v>-79.34467344734486</v>
       </c>
       <c r="B208" t="n">
         <v>164.0</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>-57.968570828886186</v>
+        <v>-79.1155861957123</v>
       </c>
       <c r="B209" t="n">
         <v>164.8</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>-57.939875413451745</v>
+        <v>-78.90663409552741</v>
       </c>
       <c r="B210" t="n">
         <v>165.60000000000002</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>-57.91082247576895</v>
+        <v>-78.69798345781038</v>
       </c>
       <c r="B211" t="n">
         <v>166.4</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>-57.88141235026197</v>
+        <v>-78.48963161596635</v>
       </c>
       <c r="B212" t="n">
         <v>167.20000000000002</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>-57.85164536306439</v>
+        <v>-78.28157591553793</v>
       </c>
       <c r="B213" t="n">
         <v>168.0</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>-57.821521831969335</v>
+        <v>-77.8663423807036</v>
       </c>
       <c r="B214" t="n">
         <v>168.8</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>-57.791042066378736</v>
+        <v>-77.65915929645115</v>
       </c>
       <c r="B215" t="n">
         <v>169.60000000000002</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>-57.76020636725204</v>
+        <v>-77.45226185356674</v>
       </c>
       <c r="B216" t="n">
         <v>170.4</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>-57.72901502705474</v>
+        <v>-77.24564745559724</v>
       </c>
       <c r="B217" t="n">
         <v>171.20000000000002</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>-57.69746832970577</v>
+        <v>-77.06014266817726</v>
       </c>
       <c r="B218" t="n">
         <v>172.0</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>-57.66556655052523</v>
+        <v>-76.85416829308645</v>
       </c>
       <c r="B219" t="n">
         <v>172.8</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>-57.63330995618031</v>
+        <v>-76.66909202158712</v>
       </c>
       <c r="B220" t="n">
         <v>173.60000000000002</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>-57.600698804632</v>
+        <v>-76.50405317005152</v>
       </c>
       <c r="B221" t="n">
         <v>174.4</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>-57.56773334508085</v>
+        <v>-76.48408023946322</v>
       </c>
       <c r="B222" t="n">
         <v>175.20000000000002</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>-57.534413817910604</v>
+        <v>-76.31881670135078</v>
       </c>
       <c r="B223" t="n">
         <v>176.0</v>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>-57.50074045463421</v>
+        <v>-76.18967658006164</v>
       </c>
       <c r="B224" t="n">
         <v>176.8</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>-57.46671347783558</v>
+        <v>-76.17135770199695</v>
       </c>
       <c r="B225" t="n">
         <v>177.60000000000002</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>-58.794038738607924</v>
+        <v>-76.15267775478111</v>
       </c>
       <c r="B226" t="n">
         <v>178.4</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>-58.82898985092413</v>
+        <v>-76.10440240219364</v>
       </c>
       <c r="B227" t="n">
         <v>179.20000000000002</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>-58.86359051698574</v>
+        <v>-76.23145479187446</v>
       </c>
       <c r="B228" t="n">
         <v>180.0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>-58.89784047245172</v>
+        <v>-76.33006560672436</v>
       </c>
       <c r="B229" t="n">
         <v>180.8</v>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>-58.93173944400883</v>
+        <v>-76.40063081397065</v>
       </c>
       <c r="B230" t="n">
         <v>181.60000000000002</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>-58.96528714942281</v>
+        <v>-76.44353856259363</v>
       </c>
       <c r="B231" t="n">
         <v>182.4</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>-58.99848329758862</v>
+        <v>-76.45916677628088</v>
       </c>
       <c r="B232" t="n">
         <v>183.20000000000002</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>-59.03132758858058</v>
+        <v>-76.4583776218335</v>
       </c>
       <c r="B233" t="n">
         <v>184.0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>-59.06381971370149</v>
+        <v>-76.45897211512829</v>
       </c>
       <c r="B234" t="n">
         <v>184.8</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>-59.095959355531534</v>
+        <v>-76.45923532943834</v>
       </c>
       <c r="B235" t="n">
         <v>185.60000000000002</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>-59.127746187976044</v>
+        <v>-76.45876596489362</v>
       </c>
       <c r="B236" t="n">
         <v>186.4</v>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>-59.1591798763136</v>
+        <v>-76.45803240227099</v>
       </c>
       <c r="B237" t="n">
         <v>187.20000000000002</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>-59.19026007724298</v>
+        <v>-76.45696559320035</v>
       </c>
       <c r="B238" t="n">
         <v>188.0</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>-59.22098643892997</v>
+        <v>-76.45556504029832</v>
       </c>
       <c r="B239" t="n">
         <v>188.8</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>-59.251358601053596</v>
+        <v>-76.45383024404794</v>
       </c>
       <c r="B240" t="n">
         <v>189.60000000000002</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>-59.28137619485159</v>
+        <v>-76.45176070283455</v>
       </c>
       <c r="B241" t="n">
         <v>190.4</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>-59.3110388431661</v>
+        <v>-76.44935591298375</v>
       </c>
       <c r="B242" t="n">
         <v>191.20000000000002</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>-59.340346160488224</v>
+        <v>-76.44661536879784</v>
       </c>
       <c r="B243" t="n">
         <v>192.0</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>-59.36929775300294</v>
+        <v>-76.44012498473967</v>
       </c>
       <c r="B244" t="n">
         <v>192.8</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>-59.3978932186327</v>
+        <v>-76.43637412369426</v>
       </c>
       <c r="B245" t="n">
         <v>193.60000000000002</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>-59.42613214708123</v>
+        <v>-76.43228546604354</v>
       </c>
       <c r="B246" t="n">
         <v>194.4</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>-59.45401411987723</v>
+        <v>-76.42785849653902</v>
       </c>
       <c r="B247" t="n">
         <v>195.20000000000002</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>-59.481538710416885</v>
+        <v>-76.42309269813649</v>
       </c>
       <c r="B248" t="n">
         <v>196.0</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>-59.50870548400664</v>
+        <v>-76.41798755203439</v>
       </c>
       <c r="B249" t="n">
         <v>196.8</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>-59.53551399790592</v>
+        <v>-76.41254253771265</v>
       </c>
       <c r="B250" t="n">
         <v>197.60000000000002</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>-59.561963801368336</v>
+        <v>-76.4067571329715</v>
       </c>
       <c r="B251" t="n">
         <v>198.4</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>-59.58805443568414</v>
+        <v>-76.3941630552691</v>
       </c>
       <c r="B252" t="n">
         <v>199.20000000000002</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>-59.61378543422114</v>
+        <v>-76.38735332986414</v>
       </c>
       <c r="B253" t="n">
         <v>200.0</v>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>-59.63915632246622</v>
+        <v>-76.38020110923148</v>
       </c>
       <c r="B254" t="n">
         <v>200.8</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>-59.66416661806565</v>
+        <v>-76.37270586336558</v>
       </c>
       <c r="B255" t="n">
         <v>201.60000000000002</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>-59.688815830866815</v>
+        <v>-76.36486706081942</v>
       </c>
       <c r="B256" t="n">
         <v>202.4</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>-59.713103462957264</v>
+        <v>-76.3566841687454</v>
       </c>
       <c r="B257" t="n">
         <v>203.20000000000002</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>-59.737029008705775</v>
+        <v>-76.34815665293559</v>
       </c>
       <c r="B258" t="n">
         <v>204.0</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>-59.76059195480252</v>
+        <v>-76.33928397786349</v>
       </c>
       <c r="B259" t="n">
         <v>204.8</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>-59.783791780297804</v>
+        <v>-76.3205010014772</v>
       </c>
       <c r="B260" t="n">
         <v>205.60000000000002</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>-59.80662795664301</v>
+        <v>-76.31058962288611</v>
       </c>
       <c r="B261" t="n">
         <v>206.4</v>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>-59.829099947728906</v>
+        <v>-76.30033093056247</v>
       </c>
       <c r="B262" t="n">
         <v>207.20000000000002</v>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>-59.8512072099258</v>
+        <v>-76.2897243830067</v>
       </c>
       <c r="B263" t="n">
         <v>208.0</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>-59.87294919212229</v>
+        <v>-76.27876943765119</v>
       </c>
       <c r="B264" t="n">
         <v>208.8</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>-59.89432533576414</v>
+        <v>-76.26746555090222</v>
       </c>
       <c r="B265" t="n">
         <v>209.60000000000002</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>-59.91533507489356</v>
+        <v>-76.25581217818336</v>
       </c>
       <c r="B266" t="n">
         <v>210.4</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>-59.93597783618762</v>
+        <v>-76.2438087739784</v>
       </c>
       <c r="B267" t="n">
         <v>211.20000000000002</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>-59.95625303899746</v>
+        <v>-76.2187496846062</v>
       </c>
       <c r="B268" t="n">
         <v>212.0</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>-59.97616009538649</v>
+        <v>-76.20569290409895</v>
       </c>
       <c r="B269" t="n">
         <v>212.8</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>-59.99569841016893</v>
+        <v>-76.19228390151329</v>
       </c>
       <c r="B270" t="n">
         <v>213.60000000000002</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>-60.01486738094894</v>
+        <v>-76.17852212728917</v>
       </c>
       <c r="B271" t="n">
         <v>214.4</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>-60.03366639815826</v>
+        <v>-76.16440703119065</v>
       </c>
       <c r="B272" t="n">
         <v>215.20000000000002</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>-60.052094845094985</v>
+        <v>-76.14993806235063</v>
       </c>
       <c r="B273" t="n">
         <v>216.0</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>-60.07015209796219</v>
+        <v>-76.13511466931615</v>
       </c>
       <c r="B274" t="n">
         <v>216.8</v>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>-60.08783752590605</v>
+        <v>-76.11993630009337</v>
       </c>
       <c r="B275" t="n">
         <v>217.60000000000002</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>-60.1051504910543</v>
+        <v>-76.08851242267895</v>
       </c>
       <c r="B276" t="n">
         <v>218.4</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>-60.12209034855471</v>
+        <v>-76.07226580820867</v>
       </c>
       <c r="B277" t="n">
         <v>219.20000000000002</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>-60.13865644661351</v>
+        <v>-76.05566200508514</v>
       </c>
       <c r="B278" t="n">
         <v>220.0</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>-60.154848126533864</v>
+        <v>-76.03870045930094</v>
       </c>
       <c r="B279" t="n">
         <v>220.8</v>
@@ -2302,7 +2302,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>-60.17066472275428</v>
+        <v>-76.02138061658553</v>
       </c>
       <c r="B280" t="n">
         <v>221.60000000000002</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>-60.18610556288752</v>
+        <v>-76.00370192245245</v>
       </c>
       <c r="B281" t="n">
         <v>222.4</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>-60.20116996775886</v>
+        <v>-74.17866371421087</v>
       </c>
       <c r="B282" t="n">
         <v>223.20000000000002</v>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>-60.21585725144513</v>
+        <v>-73.97623343449754</v>
       </c>
       <c r="B283" t="n">
         <v>224.0</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>-60.230166721313424</v>
+        <v>-73.77404361674252</v>
       </c>
       <c r="B284" t="n">
         <v>224.8</v>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>-60.24409767806014</v>
+        <v>-73.57209183828405</v>
       </c>
       <c r="B285" t="n">
         <v>225.60000000000002</v>
@@ -2350,7 +2350,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>-60.25764941574997</v>
+        <v>-73.3703756845857</v>
       </c>
       <c r="B286" t="n">
         <v>226.4</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>-60.27082122185493</v>
+        <v>-73.16889274908047</v>
       </c>
       <c r="B287" t="n">
         <v>227.20000000000002</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>-60.28361237729413</v>
+        <v>-72.96764063301598</v>
       </c>
       <c r="B288" t="n">
         <v>228.0</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>-60.296022156472844</v>
+        <v>-72.76661694530026</v>
       </c>
       <c r="B289" t="n">
         <v>228.8</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>-60.30804982732252</v>
+        <v>-72.3652453279287</v>
       </c>
       <c r="B290" t="n">
         <v>229.60000000000002</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>-60.50739324455117</v>
+        <v>-72.16489265301198</v>
       </c>
       <c r="B291" t="n">
         <v>230.4</v>
@@ -2398,7 +2398,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>-60.70689608866408</v>
+        <v>-71.96475891561752</v>
       </c>
       <c r="B292" t="n">
         <v>231.20000000000002</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>-60.9065596500036</v>
+        <v>-71.76484176066327</v>
       </c>
       <c r="B293" t="n">
         <v>232.0</v>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>-61.106385213298495</v>
+        <v>-71.5651388398141</v>
       </c>
       <c r="B294" t="n">
         <v>232.8</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>-61.3063740576454</v>
+        <v>-71.36564781133166</v>
       </c>
       <c r="B295" t="n">
         <v>233.60000000000002</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>-61.50652745648816</v>
+        <v>-71.16636633992437</v>
       </c>
       <c r="B296" t="n">
         <v>234.4</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>-61.70684667759622</v>
+        <v>-70.96729209659748</v>
       </c>
       <c r="B297" t="n">
         <v>235.20000000000002</v>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>-61.9073329830409</v>
+        <v>-70.96051848926135</v>
       </c>
       <c r="B298" t="n">
         <v>236.0</v>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>-62.107987629170566</v>
+        <v>-70.94056713873255</v>
       </c>
       <c r="B299" t="n">
         <v>236.8</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>-62.30881186658439</v>
+        <v>-70.9202685452106</v>
       </c>
       <c r="B300" t="n">
         <v>237.60000000000002</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>-62.509806940103886</v>
+        <v>-70.89962231743934</v>
       </c>
       <c r="B301" t="n">
         <v>238.4</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>-62.710974088743654</v>
+        <v>-70.87862806441512</v>
       </c>
       <c r="B302" t="n">
         <v>239.20000000000002</v>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>-62.912314545680545</v>
+        <v>-70.85728539543067</v>
       </c>
       <c r="B303" t="n">
         <v>240.0</v>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>-63.113829538220614</v>
+        <v>-70.8355939201171</v>
       </c>
       <c r="B304" t="n">
         <v>240.8</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>-63.31552028776545</v>
+        <v>-70.81355324848772</v>
       </c>
       <c r="B305" t="n">
         <v>241.60000000000002</v>
@@ -2510,7 +2510,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>-63.517388009775914</v>
+        <v>-70.79116299098109</v>
       </c>
       <c r="B306" t="n">
         <v>242.4</v>
@@ -2518,151 +2518,151 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>-63.71943391373566</v>
+        <v>-70.76842275850424</v>
       </c>
       <c r="B307" t="n">
         <v>243.20000000000002</v>
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="n">
-        <v>193.76254434665913</v>
+      <c r="A308" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B308" t="n">
         <v>243.20000000000002</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="n">
-        <v>193.7932467121518</v>
+      <c r="A309" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B309" t="n">
         <v>242.4</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="n">
-        <v>193.82432913355404</v>
+      <c r="A310" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B310" t="n">
         <v>241.60000000000002</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="n">
-        <v>193.8557918803548</v>
+      <c r="A311" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B311" t="n">
         <v>240.8</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="n">
-        <v>193.8876352328258</v>
+      <c r="A312" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B312" t="n">
         <v>240.0</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="n">
-        <v>193.91985948214494</v>
+      <c r="A313" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B313" t="n">
         <v>239.20000000000002</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="n">
-        <v>193.9524649305224</v>
+      <c r="A314" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B314" t="n">
         <v>238.4</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="n">
-        <v>193.9854518913276</v>
+      <c r="A315" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B315" t="n">
         <v>237.60000000000002</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="n">
-        <v>194.01882068921878</v>
+      <c r="A316" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B316" t="n">
         <v>236.8</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="n">
-        <v>194.05257166027383</v>
+      <c r="A317" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B317" t="n">
         <v>236.0</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="n">
-        <v>194.08670515212384</v>
+      <c r="A318" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B318" t="n">
         <v>235.20000000000002</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="n">
-        <v>194.12122152408756</v>
+      <c r="A319" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B319" t="n">
         <v>234.4</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="n">
-        <v>194.15612114730942</v>
+      <c r="A320" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B320" t="n">
         <v>233.60000000000002</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="n">
-        <v>194.1914044048981</v>
+      <c r="A321" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B321" t="n">
         <v>232.8</v>
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="n">
-        <v>194.22707169206836</v>
+      <c r="A322" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B322" t="n">
         <v>232.0</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="n">
-        <v>194.26312341628488</v>
+      <c r="A323" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B323" t="n">
         <v>231.20000000000002</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="n">
-        <v>194.2995599974073</v>
+      <c r="A324" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B324" t="n">
         <v>230.4</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="n">
-        <v>194.3363818678393</v>
+      <c r="A325" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B325" t="n">
         <v>229.60000000000002</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>194.52466559944043</v>
+        <v>129.81635773819994</v>
       </c>
       <c r="B326" t="n">
         <v>228.8</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>194.71301395533789</v>
+        <v>128.9168913204511</v>
       </c>
       <c r="B327" t="n">
         <v>228.0</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>194.90142868182454</v>
+        <v>128.17169133305737</v>
       </c>
       <c r="B328" t="n">
         <v>227.20000000000002</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>195.08991154298116</v>
+        <v>127.52380885997934</v>
       </c>
       <c r="B329" t="n">
         <v>226.4</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>195.27846432090297</v>
+        <v>126.94457034143477</v>
       </c>
       <c r="B330" t="n">
         <v>225.60000000000002</v>
@@ -2710,7 +2710,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>195.46708881593327</v>
+        <v>126.41712487280546</v>
       </c>
       <c r="B331" t="n">
         <v>224.8</v>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>195.6557868469008</v>
+        <v>125.93057113786267</v>
       </c>
       <c r="B332" t="n">
         <v>224.0</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>195.84456025136421</v>
+        <v>125.47737542485197</v>
       </c>
       <c r="B333" t="n">
         <v>223.20000000000002</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>196.03341088586006</v>
+        <v>130.0175332357552</v>
       </c>
       <c r="B334" t="n">
         <v>222.4</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>196.22234062615826</v>
+        <v>131.44501371351134</v>
       </c>
       <c r="B335" t="n">
         <v>221.60000000000002</v>
@@ -2750,423 +2750,423 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>196.41135136752257</v>
+        <v>134.06092859433335</v>
       </c>
       <c r="B336" t="n">
         <v>220.8</v>
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="n">
-        <v>196.6004450249767</v>
+      <c r="A337" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B337" t="n">
         <v>220.0</v>
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="n">
-        <v>196.7896235335777</v>
+      <c r="A338" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B338" t="n">
         <v>219.20000000000002</v>
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="n">
-        <v>196.97888884869406</v>
+      <c r="A339" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B339" t="n">
         <v>218.4</v>
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="n">
-        <v>197.1682429462913</v>
+      <c r="A340" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B340" t="n">
         <v>217.60000000000002</v>
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="n">
-        <v>197.35768782322373</v>
+      <c r="A341" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B341" t="n">
         <v>216.8</v>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="n">
-        <v>197.54722549753296</v>
+      <c r="A342" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B342" t="n">
         <v>216.0</v>
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="n">
-        <v>197.73685800875307</v>
+      <c r="A343" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B343" t="n">
         <v>215.20000000000002</v>
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="n">
-        <v>197.92658741822316</v>
+      <c r="A344" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B344" t="n">
         <v>214.4</v>
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="n">
-        <v>198.11641580940693</v>
+      <c r="A345" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B345" t="n">
         <v>213.60000000000002</v>
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="n">
-        <v>198.30634528821923</v>
+      <c r="A346" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B346" t="n">
         <v>212.8</v>
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="n">
-        <v>198.49637798336101</v>
+      <c r="A347" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B347" t="n">
         <v>212.0</v>
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="n">
-        <v>198.68651604666127</v>
+      <c r="A348" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B348" t="n">
         <v>211.20000000000002</v>
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="n">
-        <v>198.87676165342765</v>
+      <c r="A349" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B349" t="n">
         <v>210.4</v>
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="n">
-        <v>199.0671170028039</v>
+      <c r="A350" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B350" t="n">
         <v>209.60000000000002</v>
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="n">
-        <v>199.2575843181378</v>
+      <c r="A351" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B351" t="n">
         <v>208.8</v>
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="n">
-        <v>199.44816584735503</v>
+      <c r="A352" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B352" t="n">
         <v>208.0</v>
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="n">
-        <v>199.6388638633445</v>
+      <c r="A353" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B353" t="n">
         <v>207.20000000000002</v>
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="n">
-        <v>199.82968066435024</v>
+      <c r="A354" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B354" t="n">
         <v>206.4</v>
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="n">
-        <v>200.0206185743744</v>
+      <c r="A355" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B355" t="n">
         <v>205.60000000000002</v>
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="n">
-        <v>200.21167994358905</v>
+      <c r="A356" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B356" t="n">
         <v>204.8</v>
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="n">
-        <v>200.40286714875685</v>
+      <c r="A357" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B357" t="n">
         <v>204.0</v>
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="n">
-        <v>200.59418259366407</v>
+      <c r="A358" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B358" t="n">
         <v>203.20000000000002</v>
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="n">
-        <v>200.78562870956063</v>
+      <c r="A359" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B359" t="n">
         <v>202.4</v>
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="n">
-        <v>200.9772079556135</v>
+      <c r="A360" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B360" t="n">
         <v>201.60000000000002</v>
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="n">
-        <v>201.16892281936993</v>
+      <c r="A361" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B361" t="n">
         <v>200.8</v>
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="n">
-        <v>201.36077581723066</v>
+      <c r="A362" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B362" t="n">
         <v>200.0</v>
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="n">
-        <v>201.5527694949368</v>
+      <c r="A363" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B363" t="n">
         <v>199.20000000000002</v>
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="n">
-        <v>201.74490642806632</v>
+      <c r="A364" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B364" t="n">
         <v>198.4</v>
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="n">
-        <v>201.9371892225442</v>
+      <c r="A365" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B365" t="n">
         <v>197.60000000000002</v>
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="n">
-        <v>202.12962051516382</v>
+      <c r="A366" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B366" t="n">
         <v>196.8</v>
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="n">
-        <v>202.32220297412152</v>
+      <c r="A367" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B367" t="n">
         <v>196.0</v>
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="n">
-        <v>202.51493929956445</v>
+      <c r="A368" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B368" t="n">
         <v>195.20000000000002</v>
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="n">
-        <v>202.70783222415196</v>
+      <c r="A369" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B369" t="n">
         <v>194.4</v>
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="n">
-        <v>202.90088451363005</v>
+      <c r="A370" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B370" t="n">
         <v>193.60000000000002</v>
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="n">
-        <v>203.09409896742108</v>
+      <c r="A371" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B371" t="n">
         <v>192.8</v>
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="n">
-        <v>203.2874784192275</v>
+      <c r="A372" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B372" t="n">
         <v>192.0</v>
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="n">
-        <v>203.4810257376506</v>
+      <c r="A373" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B373" t="n">
         <v>191.20000000000002</v>
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="n">
-        <v>203.67474382682548</v>
+      <c r="A374" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B374" t="n">
         <v>190.4</v>
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="n">
-        <v>203.86863562707106</v>
+      <c r="A375" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B375" t="n">
         <v>189.60000000000002</v>
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="n">
-        <v>204.06270411555732</v>
+      <c r="A376" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B376" t="n">
         <v>188.8</v>
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="n">
-        <v>204.25695230698898</v>
+      <c r="A377" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B377" t="n">
         <v>188.0</v>
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="n">
-        <v>204.4513832543068</v>
+      <c r="A378" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B378" t="n">
         <v>187.20000000000002</v>
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="n">
-        <v>204.64600004940684</v>
+      <c r="A379" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B379" t="n">
         <v>186.4</v>
       </c>
     </row>
     <row r="380">
-      <c r="A380" t="n">
-        <v>204.8408058238782</v>
+      <c r="A380" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B380" t="n">
         <v>185.60000000000002</v>
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="n">
-        <v>205.0358037497599</v>
+      <c r="A381" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B381" t="n">
         <v>184.8</v>
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="n">
-        <v>205.23099704031716</v>
+      <c r="A382" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B382" t="n">
         <v>184.0</v>
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="n">
-        <v>205.42638895083797</v>
+      <c r="A383" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B383" t="n">
         <v>183.20000000000002</v>
       </c>
     </row>
     <row r="384">
-      <c r="A384" t="n">
-        <v>205.6219827794513</v>
+      <c r="A384" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B384" t="n">
         <v>182.4</v>
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="n">
-        <v>205.81778186796538</v>
+      <c r="A385" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B385" t="n">
         <v>181.60000000000002</v>
       </c>
     </row>
     <row r="386">
-      <c r="A386" t="n">
-        <v>206.0137896027295</v>
+      <c r="A386" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B386" t="n">
         <v>180.8</v>
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="n">
-        <v>206.21000941551813</v>
+      <c r="A387" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B387" t="n">
         <v>180.0</v>
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="n">
-        <v>206.40644478443863</v>
+      <c r="A388" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B388" t="n">
         <v>179.20000000000002</v>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>206.6030992348633</v>
+        <v>126.62915217270427</v>
       </c>
       <c r="B389" t="n">
         <v>178.4</v>
@@ -3182,7 +3182,7 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>206.88643693577086</v>
+        <v>127.42122307447505</v>
       </c>
       <c r="B390" t="n">
         <v>177.60000000000002</v>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>206.68910287932033</v>
+        <v>128.29684122715435</v>
       </c>
       <c r="B391" t="n">
         <v>176.8</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>206.4920046855289</v>
+        <v>124.84355903022265</v>
       </c>
       <c r="B392" t="n">
         <v>176.0</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>206.29513865963588</v>
+        <v>123.3193165908865</v>
       </c>
       <c r="B393" t="n">
         <v>175.20000000000002</v>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>206.0985011581758</v>
+        <v>123.8892248195258</v>
       </c>
       <c r="B394" t="n">
         <v>174.4</v>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>205.90208858794392</v>
+        <v>122.47905793752176</v>
       </c>
       <c r="B395" t="n">
         <v>173.60000000000002</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>205.7058974049889</v>
+        <v>121.69260589686746</v>
       </c>
       <c r="B396" t="n">
         <v>172.8</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>205.50992411363188</v>
+        <v>121.42832306441119</v>
       </c>
       <c r="B397" t="n">
         <v>172.0</v>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>205.31416526551266</v>
+        <v>120.70287179576263</v>
       </c>
       <c r="B398" t="n">
         <v>171.20000000000002</v>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>205.11861745865923</v>
+        <v>120.46144518446857</v>
       </c>
       <c r="B399" t="n">
         <v>170.4</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>204.9232773365831</v>
+        <v>120.22606514424837</v>
       </c>
       <c r="B400" t="n">
         <v>169.60000000000002</v>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>204.7281415873979</v>
+        <v>119.99639209912726</v>
       </c>
       <c r="B401" t="n">
         <v>168.8</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>204.5332069429599</v>
+        <v>119.55296120950766</v>
       </c>
       <c r="B402" t="n">
         <v>168.0</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>204.33847017803254</v>
+        <v>119.3386656631078</v>
       </c>
       <c r="B403" t="n">
         <v>167.20000000000002</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>204.14392810946998</v>
+        <v>119.12899562070118</v>
       </c>
       <c r="B404" t="n">
         <v>166.4</v>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>203.94957759542376</v>
+        <v>118.92373449802676</v>
       </c>
       <c r="B405" t="n">
         <v>165.60000000000002</v>
@@ -3310,7 +3310,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>203.75541553456827</v>
+        <v>118.72268256302976</v>
       </c>
       <c r="B406" t="n">
         <v>164.8</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>203.56143886534653</v>
+        <v>118.92887756954747</v>
       </c>
       <c r="B407" t="n">
         <v>164.0</v>
@@ -3326,7 +3326,7 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>203.36764456523474</v>
+        <v>118.73083992752254</v>
       </c>
       <c r="B408" t="n">
         <v>163.20000000000002</v>
@@ -3334,7 +3334,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>203.17402965002475</v>
+        <v>118.93769120012615</v>
       </c>
       <c r="B409" t="n">
         <v>162.4</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>202.98059117312573</v>
+        <v>119.14624272078936</v>
       </c>
       <c r="B410" t="n">
         <v>161.60000000000002</v>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>202.78732622488218</v>
+        <v>119.77109312160042</v>
       </c>
       <c r="B411" t="n">
         <v>160.8</v>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>202.594231931909</v>
+        <v>120.19437284575872</v>
       </c>
       <c r="B412" t="n">
         <v>160.0</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>202.40130545644337</v>
+        <v>120.41274206413595</v>
       </c>
       <c r="B413" t="n">
         <v>159.20000000000002</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>202.20854399571215</v>
+        <v>120.84891860166891</v>
       </c>
       <c r="B414" t="n">
         <v>158.4</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>202.0159447813151</v>
+        <v>121.29550965632706</v>
       </c>
       <c r="B415" t="n">
         <v>157.60000000000002</v>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>201.82350507862304</v>
+        <v>121.98562466746534</v>
       </c>
       <c r="B416" t="n">
         <v>156.8</v>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>201.63122218619014</v>
+        <v>122.46053853180587</v>
       </c>
       <c r="B417" t="n">
         <v>156.0</v>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>201.43909343518146</v>
+        <v>123.45383268117615</v>
       </c>
       <c r="B418" t="n">
         <v>155.20000000000002</v>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>201.24711618881338</v>
+        <v>123.97544872744663</v>
       </c>
       <c r="B419" t="n">
         <v>154.4</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>201.0552878418079</v>
+        <v>124.51640938086126</v>
       </c>
       <c r="B420" t="n">
         <v>153.60000000000002</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>200.86360581985969</v>
+        <v>125.07929435525239</v>
       </c>
       <c r="B421" t="n">
         <v>152.8</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>200.67206757911686</v>
+        <v>125.66730835583502</v>
       </c>
       <c r="B422" t="n">
         <v>152.0</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>200.480670605672</v>
+        <v>126.93620432506083</v>
       </c>
       <c r="B423" t="n">
         <v>151.20000000000002</v>
@@ -3454,7 +3454,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>200.28941241506772</v>
+        <v>127.62946856109443</v>
       </c>
       <c r="B424" t="n">
         <v>150.4</v>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>200.09829055181228</v>
+        <v>128.37421828428103</v>
       </c>
       <c r="B425" t="n">
         <v>149.6</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>199.907302588907</v>
+        <v>129.18504207309422</v>
       </c>
       <c r="B426" t="n">
         <v>148.8</v>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>199.71644612738493</v>
+        <v>130.0850448676457</v>
       </c>
       <c r="B427" t="n">
         <v>148.0</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>199.5257187958603</v>
+        <v>131.1150295060151</v>
       </c>
       <c r="B428" t="n">
         <v>147.20000000000002</v>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>199.33511825008856</v>
+        <v>132.36151349336734</v>
       </c>
       <c r="B429" t="n">
         <v>146.4</v>
@@ -3502,303 +3502,303 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>199.1446421725356</v>
+        <v>134.09792901237552</v>
       </c>
       <c r="B430" t="n">
         <v>145.6</v>
       </c>
     </row>
     <row r="431">
-      <c r="A431" t="n">
-        <v>198.95428827195929</v>
+      <c r="A431" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B431" t="n">
         <v>144.8</v>
       </c>
     </row>
     <row r="432">
-      <c r="A432" t="n">
-        <v>198.7640542829979</v>
+      <c r="A432" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B432" t="n">
         <v>144.0</v>
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="n">
-        <v>198.57393796577054</v>
+      <c r="A433" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B433" t="n">
         <v>143.20000000000002</v>
       </c>
     </row>
     <row r="434">
-      <c r="A434" t="n">
-        <v>198.38393710548462</v>
+      <c r="A434" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B434" t="n">
         <v>142.4</v>
       </c>
     </row>
     <row r="435">
-      <c r="A435" t="n">
-        <v>198.19404951205433</v>
+      <c r="A435" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B435" t="n">
         <v>141.6</v>
       </c>
     </row>
     <row r="436">
-      <c r="A436" t="n">
-        <v>198.00427301972582</v>
+      <c r="A436" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B436" t="n">
         <v>140.8</v>
       </c>
     </row>
     <row r="437">
-      <c r="A437" t="n">
-        <v>197.81460548671322</v>
+      <c r="A437" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B437" t="n">
         <v>140.0</v>
       </c>
     </row>
     <row r="438">
-      <c r="A438" t="n">
-        <v>197.62504479484073</v>
+      <c r="A438" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B438" t="n">
         <v>139.20000000000002</v>
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="n">
-        <v>197.4355888491943</v>
+      <c r="A439" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B439" t="n">
         <v>138.4</v>
       </c>
     </row>
     <row r="440">
-      <c r="A440" t="n">
-        <v>197.2462355777808</v>
+      <c r="A440" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B440" t="n">
         <v>137.6</v>
       </c>
     </row>
     <row r="441">
-      <c r="A441" t="n">
-        <v>197.05698293119485</v>
+      <c r="A441" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B441" t="n">
         <v>136.8</v>
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="n">
-        <v>196.8678288822935</v>
+      <c r="A442" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B442" t="n">
         <v>136.0</v>
       </c>
     </row>
     <row r="443">
-      <c r="A443" t="n">
-        <v>196.67877142587747</v>
+      <c r="A443" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B443" t="n">
         <v>135.20000000000002</v>
       </c>
     </row>
     <row r="444">
-      <c r="A444" t="n">
-        <v>196.4898085783807</v>
+      <c r="A444" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B444" t="n">
         <v>134.4</v>
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="n">
-        <v>196.3407358282101</v>
+      <c r="A445" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B445" t="n">
         <v>133.6</v>
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="n">
-        <v>196.15196345103487</v>
+      <c r="A446" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B446" t="n">
         <v>132.8</v>
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="n">
-        <v>195.96328153509785</v>
+      <c r="A447" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B447" t="n">
         <v>132.0</v>
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="n">
-        <v>195.81490633474777</v>
+      <c r="A448" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B448" t="n">
         <v>131.20000000000002</v>
       </c>
     </row>
     <row r="449">
-      <c r="A449" t="n">
-        <v>195.62641099207684</v>
+      <c r="A449" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B449" t="n">
         <v>130.4</v>
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="n">
-        <v>195.47863803848878</v>
+      <c r="A450" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B450" t="n">
         <v>129.6</v>
       </c>
     </row>
     <row r="451">
-      <c r="A451" t="n">
-        <v>195.2903276661964</v>
+      <c r="A451" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B451" t="n">
         <v>128.8</v>
       </c>
     </row>
     <row r="452">
-      <c r="A452" t="n">
-        <v>195.1431595582614</v>
+      <c r="A452" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B452" t="n">
         <v>128.0</v>
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="n">
-        <v>194.99649921096926</v>
+      <c r="A453" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B453" t="n">
         <v>127.2</v>
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="n">
-        <v>195.03835867492847</v>
+      <c r="A454" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B454" t="n">
         <v>126.4</v>
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="n">
-        <v>194.8926167680977</v>
+      <c r="A455" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B455" t="n">
         <v>125.60000000000001</v>
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="n">
-        <v>194.93527887881203</v>
+      <c r="A456" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B456" t="n">
         <v>124.80000000000001</v>
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
-        <v>194.97833503399113</v>
+      <c r="A457" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B457" t="n">
         <v>124.0</v>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
-        <v>195.02178590447255</v>
+      <c r="A458" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B458" t="n">
         <v>123.2</v>
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="n">
-        <v>195.06563217676774</v>
+      <c r="A459" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B459" t="n">
         <v>122.4</v>
       </c>
     </row>
     <row r="460">
-      <c r="A460" t="n">
-        <v>195.1098745532663</v>
+      <c r="A460" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B460" t="n">
         <v>121.60000000000001</v>
       </c>
     </row>
     <row r="461">
-      <c r="A461" t="n">
-        <v>195.15451375244322</v>
+      <c r="A461" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B461" t="n">
         <v>120.80000000000001</v>
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="n">
-        <v>195.1995505090705</v>
+      <c r="A462" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B462" t="n">
         <v>120.0</v>
       </c>
     </row>
     <row r="463">
-      <c r="A463" t="n">
-        <v>195.24498557443218</v>
+      <c r="A463" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B463" t="n">
         <v>119.2</v>
       </c>
     </row>
     <row r="464">
-      <c r="A464" t="n">
-        <v>195.29081971654398</v>
+      <c r="A464" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B464" t="n">
         <v>118.4</v>
       </c>
     </row>
     <row r="465">
-      <c r="A465" t="n">
-        <v>195.52493814426674</v>
+      <c r="A465" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B465" t="n">
         <v>117.60000000000001</v>
       </c>
     </row>
     <row r="466">
-      <c r="A466" t="n">
-        <v>195.57156668315372</v>
+      <c r="A466" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B466" t="n">
         <v>116.80000000000001</v>
       </c>
     </row>
     <row r="467">
-      <c r="A467" t="n">
-        <v>195.8065787478282</v>
+      <c r="A467" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B467" t="n">
         <v>116.0</v>
@@ -3806,7 +3806,7 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>196.04210083037492</v>
+        <v>126.28451602731542</v>
       </c>
       <c r="B468" t="n">
         <v>115.2</v>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>196.23030476432785</v>
+        <v>121.5234472804508</v>
       </c>
       <c r="B469" t="n">
         <v>114.4</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>196.46646742830694</v>
+        <v>116.26635512279393</v>
       </c>
       <c r="B470" t="n">
         <v>113.60000000000001</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>196.65491023707972</v>
+        <v>116.61973342899739</v>
       </c>
       <c r="B471" t="n">
         <v>112.80000000000001</v>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>196.89174188264633</v>
+        <v>116.97800100761543</v>
       </c>
       <c r="B472" t="n">
         <v>112.0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>197.08043997700332</v>
+        <v>117.34140999555495</v>
       </c>
       <c r="B473" t="n">
         <v>111.2</v>
@@ -3854,7 +3854,7 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>197.26926548690278</v>
+        <v>117.71023439119091</v>
       </c>
       <c r="B474" t="n">
         <v>110.4</v>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>197.5069398599632</v>
+        <v>118.08477280234519</v>
       </c>
       <c r="B475" t="n">
         <v>109.60000000000001</v>
@@ -3870,7 +3870,7 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>197.69604359127447</v>
+        <v>118.46535165479605</v>
       </c>
       <c r="B476" t="n">
         <v>108.80000000000001</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>197.885283050496</v>
+        <v>118.8523289592959</v>
       </c>
       <c r="B477" t="n">
         <v>108.0</v>
@@ -3886,7 +3886,7 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>198.07466044249475</v>
+        <v>119.24609876070099</v>
       </c>
       <c r="B478" t="n">
         <v>107.2</v>
@@ -3894,7 +3894,7 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>198.26417799910422</v>
+        <v>119.64709642650934</v>
       </c>
       <c r="B479" t="n">
         <v>106.4</v>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>198.4538379795476</v>
+        <v>116.11197986078525</v>
       </c>
       <c r="B480" t="n">
         <v>105.60000000000001</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>198.64364267087103</v>
+        <v>115.9599515777461</v>
       </c>
       <c r="B481" t="n">
         <v>104.80000000000001</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>198.83359438838767</v>
+        <v>115.81020269609945</v>
       </c>
       <c r="B482" t="n">
         <v>104.0</v>
@@ -3926,7 +3926,7 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>199.02369547613148</v>
+        <v>115.6626690167783</v>
       </c>
       <c r="B483" t="n">
         <v>103.2</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>199.2139483073231</v>
+        <v>115.51728948817686</v>
       </c>
       <c r="B484" t="n">
         <v>102.4</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>199.40435528484602</v>
+        <v>115.37400599503474</v>
       </c>
       <c r="B485" t="n">
         <v>101.60000000000001</v>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>199.5949188417353</v>
+        <v>115.23276316519025</v>
       </c>
       <c r="B486" t="n">
         <v>100.80000000000001</v>
@@ -3958,7 +3958,7 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>199.78564144167655</v>
+        <v>115.09350819238819</v>
       </c>
       <c r="B487" t="n">
         <v>100.0</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>199.9765255795192</v>
+        <v>114.82076245902977</v>
       </c>
       <c r="B488" t="n">
         <v>99.2</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>200.1675737818005</v>
+        <v>114.68717751478584</v>
       </c>
       <c r="B489" t="n">
         <v>98.4</v>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>200.35878860728366</v>
+        <v>114.55539179504484</v>
       </c>
       <c r="B490" t="n">
         <v>97.60000000000001</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>200.55017264750802</v>
+        <v>114.42536312477455</v>
       </c>
       <c r="B491" t="n">
         <v>96.80000000000001</v>
@@ -3998,7 +3998,7 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>200.74172852735427</v>
+        <v>114.29705109089855</v>
       </c>
       <c r="B492" t="n">
         <v>96.0</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>200.93345890562284</v>
+        <v>114.1704169415197</v>
       </c>
       <c r="B493" t="n">
         <v>95.2</v>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>201.12536647562666</v>
+        <v>114.04542349243746</v>
       </c>
       <c r="B494" t="n">
         <v>94.4</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>201.31745396579902</v>
+        <v>113.92203504032517</v>
       </c>
       <c r="B495" t="n">
         <v>93.60000000000001</v>
@@ -4030,7 +4030,7 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>201.5097241403173</v>
+        <v>114.95619067354107</v>
       </c>
       <c r="B496" t="n">
         <v>92.80000000000001</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>201.70217979974063</v>
+        <v>120.0558049768465</v>
       </c>
       <c r="B497" t="n">
         <v>92.0</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>201.89482378166616</v>
+        <v>120.47276271805549</v>
       </c>
       <c r="B498" t="n">
         <v>91.2</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>202.08765896140017</v>
+        <v>120.8985725237859</v>
       </c>
       <c r="B499" t="n">
         <v>90.4</v>
@@ -4062,7 +4062,7 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>202.28068825264688</v>
+        <v>121.33391322012483</v>
       </c>
       <c r="B500" t="n">
         <v>89.60000000000001</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>202.47391460821552</v>
+        <v>121.77955368879498</v>
       </c>
       <c r="B501" t="n">
         <v>88.80000000000001</v>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>202.6673410207449</v>
+        <v>122.23637052615521</v>
       </c>
       <c r="B502" t="n">
         <v>88.0</v>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>202.8609705234466</v>
+        <v>122.70537041910444</v>
       </c>
       <c r="B503" t="n">
         <v>87.2</v>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>203.05480619086882</v>
+        <v>123.18771887554777</v>
       </c>
       <c r="B504" t="n">
         <v>86.4</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>203.24885113967838</v>
+        <v>123.68477766465355</v>
       </c>
       <c r="B505" t="n">
         <v>85.60000000000001</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>203.44310852946495</v>
+        <v>124.19815442894969</v>
       </c>
       <c r="B506" t="n">
         <v>84.80000000000001</v>
@@ -4118,7 +4118,7 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>203.637581563565</v>
+        <v>124.72976968451036</v>
       </c>
       <c r="B507" t="n">
         <v>84.0</v>
@@ -4126,7 +4126,7 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>203.83227348990908</v>
+        <v>125.28194929291664</v>
       </c>
       <c r="B508" t="n">
         <v>83.2</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>204.02718760189003</v>
+        <v>126.46017696511609</v>
       </c>
       <c r="B509" t="n">
         <v>82.4</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>204.22232723925646</v>
+        <v>127.09441842052115</v>
       </c>
       <c r="B510" t="n">
         <v>81.60000000000001</v>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>204.41769578902807</v>
+        <v>127.76635306130572</v>
       </c>
       <c r="B511" t="n">
         <v>80.80000000000001</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>204.61329668643725</v>
+        <v>128.4842772106383</v>
       </c>
       <c r="B512" t="n">
         <v>80.0</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>204.8091334158961</v>
+        <v>129.26004893741816</v>
       </c>
       <c r="B513" t="n">
         <v>79.2</v>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>205.00520951198905</v>
+        <v>130.11168533885382</v>
       </c>
       <c r="B514" t="n">
         <v>78.4</v>
@@ -4182,7 +4182,7 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>205.20152856049395</v>
+        <v>131.06906143806253</v>
       </c>
       <c r="B515" t="n">
         <v>77.60000000000001</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>205.3980941994297</v>
+        <v>132.18896940704167</v>
       </c>
       <c r="B516" t="n">
         <v>76.80000000000001</v>
@@ -4198,263 +4198,263 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>205.59491012013507</v>
+        <v>136.07931497652635</v>
       </c>
       <c r="B517" t="n">
         <v>76.0</v>
       </c>
     </row>
     <row r="518">
-      <c r="A518" t="n">
-        <v>205.79198006837555</v>
+      <c r="A518" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B518" t="n">
         <v>75.2</v>
       </c>
     </row>
     <row r="519">
-      <c r="A519" t="n">
-        <v>205.98930784548298</v>
+      <c r="A519" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B519" t="n">
         <v>74.4</v>
       </c>
     </row>
     <row r="520">
-      <c r="A520" t="n">
-        <v>206.1868973095261</v>
+      <c r="A520" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B520" t="n">
         <v>73.60000000000001</v>
       </c>
     </row>
     <row r="521">
-      <c r="A521" t="n">
-        <v>206.38475237651465</v>
+      <c r="A521" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B521" t="n">
         <v>72.8</v>
       </c>
     </row>
     <row r="522">
-      <c r="A522" t="n">
-        <v>206.58287702163824</v>
+      <c r="A522" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B522" t="n">
         <v>72.0</v>
       </c>
     </row>
     <row r="523">
-      <c r="A523" t="n">
-        <v>206.78127528054034</v>
+      <c r="A523" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B523" t="n">
         <v>71.2</v>
       </c>
     </row>
     <row r="524">
-      <c r="A524" t="n">
-        <v>206.9799512506293</v>
+      <c r="A524" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B524" t="n">
         <v>70.4</v>
       </c>
     </row>
     <row r="525">
-      <c r="A525" t="n">
-        <v>207.17890909242686</v>
+      <c r="A525" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B525" t="n">
         <v>69.60000000000001</v>
       </c>
     </row>
     <row r="526">
-      <c r="A526" t="n">
-        <v>207.3781530309568</v>
+      <c r="A526" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B526" t="n">
         <v>68.8</v>
       </c>
     </row>
     <row r="527">
-      <c r="A527" t="n">
-        <v>207.5776873571739</v>
+      <c r="A527" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B527" t="n">
         <v>68.0</v>
       </c>
     </row>
     <row r="528">
-      <c r="A528" t="n">
-        <v>207.77751642943497</v>
+      <c r="A528" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B528" t="n">
         <v>67.2</v>
       </c>
     </row>
     <row r="529">
-      <c r="A529" t="n">
-        <v>207.97764467501423</v>
+      <c r="A529" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B529" t="n">
         <v>66.4</v>
       </c>
     </row>
     <row r="530">
-      <c r="A530" t="n">
-        <v>195.9748726683556</v>
+      <c r="A530" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B530" t="n">
         <v>65.60000000000001</v>
       </c>
     </row>
     <row r="531">
-      <c r="A531" t="n">
-        <v>196.02679722191147</v>
+      <c r="A531" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B531" t="n">
         <v>64.8</v>
       </c>
     </row>
     <row r="532">
-      <c r="A532" t="n">
-        <v>196.0791356118129</v>
+      <c r="A532" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B532" t="n">
         <v>64.0</v>
       </c>
     </row>
     <row r="533">
-      <c r="A533" t="n">
-        <v>196.13188892840594</v>
+      <c r="A533" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B533" t="n">
         <v>63.2</v>
       </c>
     </row>
     <row r="534">
-      <c r="A534" t="n">
-        <v>196.1850582835167</v>
+      <c r="A534" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B534" t="n">
         <v>62.400000000000006</v>
       </c>
     </row>
     <row r="535">
-      <c r="A535" t="n">
-        <v>196.23864481076657</v>
+      <c r="A535" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B535" t="n">
         <v>61.6</v>
       </c>
     </row>
     <row r="536">
-      <c r="A536" t="n">
-        <v>196.29264966589653</v>
+      <c r="A536" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B536" t="n">
         <v>60.800000000000004</v>
       </c>
     </row>
     <row r="537">
-      <c r="A537" t="n">
-        <v>196.34707402709518</v>
+      <c r="A537" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B537" t="n">
         <v>60.0</v>
       </c>
     </row>
     <row r="538">
-      <c r="A538" t="n">
-        <v>196.40191909533655</v>
+      <c r="A538" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B538" t="n">
         <v>59.2</v>
       </c>
     </row>
     <row r="539">
-      <c r="A539" t="n">
-        <v>196.4571860947226</v>
+      <c r="A539" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B539" t="n">
         <v>58.400000000000006</v>
       </c>
     </row>
     <row r="540">
-      <c r="A540" t="n">
-        <v>196.5128762728341</v>
+      <c r="A540" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B540" t="n">
         <v>57.6</v>
       </c>
     </row>
     <row r="541">
-      <c r="A541" t="n">
-        <v>196.56899090108868</v>
+      <c r="A541" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B541" t="n">
         <v>56.800000000000004</v>
       </c>
     </row>
     <row r="542">
-      <c r="A542" t="n">
-        <v>196.6255312751066</v>
+      <c r="A542" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B542" t="n">
         <v>56.0</v>
       </c>
     </row>
     <row r="543">
-      <c r="A543" t="n">
-        <v>196.68249871508402</v>
+      <c r="A543" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B543" t="n">
         <v>55.2</v>
       </c>
     </row>
     <row r="544">
-      <c r="A544" t="n">
-        <v>196.73989456617494</v>
+      <c r="A544" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B544" t="n">
         <v>54.400000000000006</v>
       </c>
     </row>
     <row r="545">
-      <c r="A545" t="n">
-        <v>196.79772019888054</v>
+      <c r="A545" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B545" t="n">
         <v>53.6</v>
       </c>
     </row>
     <row r="546">
-      <c r="A546" t="n">
-        <v>196.8559770094471</v>
+      <c r="A546" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B546" t="n">
         <v>52.800000000000004</v>
       </c>
     </row>
     <row r="547">
-      <c r="A547" t="n">
-        <v>196.91466642027365</v>
+      <c r="A547" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B547" t="n">
         <v>52.0</v>
       </c>
     </row>
     <row r="548">
-      <c r="A548" t="n">
-        <v>196.97378988032722</v>
+      <c r="A548" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B548" t="n">
         <v>51.2</v>
       </c>
     </row>
     <row r="549">
-      <c r="A549" t="n">
-        <v>197.1619860832967</v>
+      <c r="A549" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B549" t="n">
         <v>50.400000000000006</v>
@@ -4462,7 +4462,7 @@
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>197.3503452154725</v>
+        <v>133.61030468392016</v>
       </c>
       <c r="B550" t="n">
         <v>49.6</v>
@@ -4470,7 +4470,7 @@
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>197.53886954199322</v>
+        <v>125.85755534487845</v>
       </c>
       <c r="B551" t="n">
         <v>48.800000000000004</v>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>197.7275613579958</v>
+        <v>122.94944816912277</v>
       </c>
       <c r="B552" t="n">
         <v>48.0</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>197.91642298910256</v>
+        <v>119.55784959370664</v>
       </c>
       <c r="B553" t="n">
         <v>47.2</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>198.10545679191813</v>
+        <v>119.77211775497216</v>
       </c>
       <c r="B554" t="n">
         <v>46.400000000000006</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>198.29466515454016</v>
+        <v>125.49580349743871</v>
       </c>
       <c r="B555" t="n">
         <v>45.6</v>
@@ -4510,7 +4510,7 @@
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>198.4840504970811</v>
+        <v>125.05207332715855</v>
       </c>
       <c r="B556" t="n">
         <v>44.800000000000004</v>
@@ -4518,447 +4518,447 @@
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>198.6736152722042</v>
+        <v>131.02329370937753</v>
       </c>
       <c r="B557" t="n">
         <v>44.0</v>
       </c>
     </row>
     <row r="558">
-      <c r="A558" t="n">
-        <v>198.86336196567174</v>
+      <c r="A558" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B558" t="n">
         <v>43.2</v>
       </c>
     </row>
     <row r="559">
-      <c r="A559" t="n">
-        <v>199.0532930969074</v>
+      <c r="A559" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B559" t="n">
         <v>42.400000000000006</v>
       </c>
     </row>
     <row r="560">
-      <c r="A560" t="n">
-        <v>199.24341121957207</v>
+      <c r="A560" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B560" t="n">
         <v>41.6</v>
       </c>
     </row>
     <row r="561">
-      <c r="A561" t="n">
-        <v>199.43371892215458</v>
+      <c r="A561" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B561" t="n">
         <v>40.800000000000004</v>
       </c>
     </row>
     <row r="562">
-      <c r="A562" t="n">
-        <v>199.62421882857706</v>
+      <c r="A562" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B562" t="n">
         <v>40.0</v>
       </c>
     </row>
     <row r="563">
-      <c r="A563" t="n">
-        <v>199.81491359881562</v>
+      <c r="A563" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B563" t="n">
         <v>39.2</v>
       </c>
     </row>
     <row r="564">
-      <c r="A564" t="n">
-        <v>200.00580592953617</v>
+      <c r="A564" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B564" t="n">
         <v>38.400000000000006</v>
       </c>
     </row>
     <row r="565">
-      <c r="A565" t="n">
-        <v>200.1968985547474</v>
+      <c r="A565" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B565" t="n">
         <v>37.6</v>
       </c>
     </row>
     <row r="566">
-      <c r="A566" t="n">
-        <v>200.38819424646954</v>
+      <c r="A566" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B566" t="n">
         <v>36.800000000000004</v>
       </c>
     </row>
     <row r="567">
-      <c r="A567" t="n">
-        <v>200.57969581542034</v>
+      <c r="A567" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B567" t="n">
         <v>36.0</v>
       </c>
     </row>
     <row r="568">
-      <c r="A568" t="n">
-        <v>200.77140611171916</v>
+      <c r="A568" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B568" t="n">
         <v>35.2</v>
       </c>
     </row>
     <row r="569">
-      <c r="A569" t="n">
-        <v>200.96332802560926</v>
+      <c r="A569" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B569" t="n">
         <v>34.4</v>
       </c>
     </row>
     <row r="570">
-      <c r="A570" t="n">
-        <v>201.15546448819805</v>
+      <c r="A570" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B570" t="n">
         <v>33.6</v>
       </c>
     </row>
     <row r="571">
-      <c r="A571" t="n">
-        <v>201.34781847221734</v>
+      <c r="A571" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B571" t="n">
         <v>32.800000000000004</v>
       </c>
     </row>
     <row r="572">
-      <c r="A572" t="n">
-        <v>201.54039299280345</v>
+      <c r="A572" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B572" t="n">
         <v>32.0</v>
       </c>
     </row>
     <row r="573">
-      <c r="A573" t="n">
-        <v>201.7331911082975</v>
+      <c r="A573" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B573" t="n">
         <v>31.200000000000003</v>
       </c>
     </row>
     <row r="574">
-      <c r="A574" t="n">
-        <v>201.92621592106747</v>
+      <c r="A574" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B574" t="n">
         <v>30.400000000000002</v>
       </c>
     </row>
     <row r="575">
-      <c r="A575" t="n">
-        <v>202.11947057835135</v>
+      <c r="A575" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B575" t="n">
         <v>29.6</v>
       </c>
     </row>
     <row r="576">
-      <c r="A576" t="n">
-        <v>202.3129582731233</v>
+      <c r="A576" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B576" t="n">
         <v>28.8</v>
       </c>
     </row>
     <row r="577">
-      <c r="A577" t="n">
-        <v>202.50668224498276</v>
+      <c r="A577" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B577" t="n">
         <v>28.0</v>
       </c>
     </row>
     <row r="578">
-      <c r="A578" t="n">
-        <v>202.7006457810681</v>
+      <c r="A578" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B578" t="n">
         <v>27.200000000000003</v>
       </c>
     </row>
     <row r="579">
-      <c r="A579" t="n">
-        <v>202.89485221699448</v>
+      <c r="A579" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B579" t="n">
         <v>26.400000000000002</v>
       </c>
     </row>
     <row r="580">
-      <c r="A580" t="n">
-        <v>203.08930493781702</v>
+      <c r="A580" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B580" t="n">
         <v>25.6</v>
       </c>
     </row>
     <row r="581">
-      <c r="A581" t="n">
-        <v>203.28400737902138</v>
+      <c r="A581" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B581" t="n">
         <v>24.8</v>
       </c>
     </row>
     <row r="582">
-      <c r="A582" t="n">
-        <v>203.47896302754066</v>
+      <c r="A582" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B582" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="583">
-      <c r="A583" t="n">
-        <v>203.67417542280054</v>
+      <c r="A583" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B583" t="n">
         <v>23.200000000000003</v>
       </c>
     </row>
     <row r="584">
-      <c r="A584" t="n">
-        <v>203.86964815779424</v>
+      <c r="A584" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B584" t="n">
         <v>22.400000000000002</v>
       </c>
     </row>
     <row r="585">
-      <c r="A585" t="n">
-        <v>204.0653848801865</v>
+      <c r="A585" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B585" t="n">
         <v>21.6</v>
       </c>
     </row>
     <row r="586">
-      <c r="A586" t="n">
-        <v>204.26138929344944</v>
+      <c r="A586" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B586" t="n">
         <v>20.8</v>
       </c>
     </row>
     <row r="587">
-      <c r="A587" t="n">
-        <v>204.4576651580303</v>
+      <c r="A587" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B587" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="588">
-      <c r="A588" t="n">
-        <v>204.65421629255195</v>
+      <c r="A588" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B588" t="n">
         <v>19.200000000000003</v>
       </c>
     </row>
     <row r="589">
-      <c r="A589" t="n">
-        <v>204.85104657504843</v>
+      <c r="A589" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B589" t="n">
         <v>18.400000000000002</v>
       </c>
     </row>
     <row r="590">
-      <c r="A590" t="n">
-        <v>205.0481599442357</v>
+      <c r="A590" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B590" t="n">
         <v>17.6</v>
       </c>
     </row>
     <row r="591">
-      <c r="A591" t="n">
-        <v>205.24556040081916</v>
+      <c r="A591" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B591" t="n">
         <v>16.8</v>
       </c>
     </row>
     <row r="592">
-      <c r="A592" t="n">
-        <v>205.44325200883867</v>
+      <c r="A592" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B592" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="593">
-      <c r="A593" t="n">
-        <v>205.64123889705445</v>
+      <c r="A593" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B593" t="n">
         <v>15.200000000000001</v>
       </c>
     </row>
     <row r="594">
-      <c r="A594" t="n">
-        <v>205.83952526037206</v>
+      <c r="A594" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B594" t="n">
         <v>14.4</v>
       </c>
     </row>
     <row r="595">
-      <c r="A595" t="n">
-        <v>206.03811536131047</v>
+      <c r="A595" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B595" t="n">
         <v>13.600000000000001</v>
       </c>
     </row>
     <row r="596">
-      <c r="A596" t="n">
-        <v>206.23701353151387</v>
+      <c r="A596" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B596" t="n">
         <v>12.8</v>
       </c>
     </row>
     <row r="597">
-      <c r="A597" t="n">
-        <v>206.43622417330852</v>
+      <c r="A597" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B597" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="598">
-      <c r="A598" t="n">
-        <v>206.63575176130678</v>
+      <c r="A598" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B598" t="n">
         <v>11.200000000000001</v>
       </c>
     </row>
     <row r="599">
-      <c r="A599" t="n">
-        <v>206.83560084405963</v>
+      <c r="A599" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B599" t="n">
         <v>10.4</v>
       </c>
     </row>
     <row r="600">
-      <c r="A600" t="n">
-        <v>207.0357760457598</v>
+      <c r="A600" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B600" t="n">
         <v>9.600000000000001</v>
       </c>
     </row>
     <row r="601">
-      <c r="A601" t="n">
-        <v>207.2362820679973</v>
+      <c r="A601" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B601" t="n">
         <v>8.8</v>
       </c>
     </row>
     <row r="602">
-      <c r="A602" t="n">
-        <v>207.4371236915689</v>
+      <c r="A602" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B602" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="603">
-      <c r="A603" t="n">
-        <v>207.63830577834443</v>
+      <c r="A603" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B603" t="n">
         <v>7.2</v>
       </c>
     </row>
     <row r="604">
-      <c r="A604" t="n">
-        <v>207.83983327319106</v>
+      <c r="A604" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B604" t="n">
         <v>6.4</v>
       </c>
     </row>
     <row r="605">
-      <c r="A605" t="n">
-        <v>208.04171120595868</v>
+      <c r="A605" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B605" t="n">
         <v>5.6000000000000005</v>
       </c>
     </row>
     <row r="606">
-      <c r="A606" t="n">
-        <v>208.24394469352814</v>
+      <c r="A606" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B606" t="n">
         <v>4.800000000000001</v>
       </c>
     </row>
     <row r="607">
-      <c r="A607" t="n">
-        <v>208.44653894192464</v>
+      <c r="A607" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B607" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="608">
-      <c r="A608" t="n">
-        <v>208.64949924849986</v>
+      <c r="A608" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B608" t="n">
         <v>3.2</v>
       </c>
     </row>
     <row r="609">
-      <c r="A609" t="n">
-        <v>208.852831004184</v>
+      <c r="A609" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B609" t="n">
         <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="610">
-      <c r="A610" t="n">
-        <v>209.0565396958117</v>
+      <c r="A610" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B610" t="n">
         <v>1.6</v>
       </c>
     </row>
     <row r="611">
-      <c r="A611" t="n">
-        <v>209.26063090852432</v>
+      <c r="A611" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B611" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="612">
-      <c r="A612" t="n">
-        <v>209.46511032825157</v>
+      <c r="A612" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B612" t="n">
         <v>0.0</v>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>-48.40360172534875</v>
+        <v>-71.53443560561686</v>
       </c>
       <c r="B613" t="n">
         <v>0.0</v>
